--- a/Updated_parallel_sessions.xlsx
+++ b/Updated_parallel_sessions.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kghali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA340C92-5A42-43C6-ADB2-3031F92A33E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163F1AAF-BB3E-41E0-AA49-6F0DF32BACD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="711">
   <si>
     <t>Number</t>
   </si>
@@ -61,6 +74,9 @@
     <t>AI in Manufacturing: Predictive Analytics</t>
   </si>
   <si>
+    <t>2968</t>
+  </si>
+  <si>
     <t>Automated Wood Chip Size Distribution Estimation With Deep Learning-based Object Detection in High Volume Biomass Manufacturing</t>
   </si>
   <si>
@@ -73,6 +89,9 @@
     <t>Amirhossein Eskorouchi, Abdur Rahman, Jason Tyler Street, Mohammad Marufuzzaman, Haifeng Wang</t>
   </si>
   <si>
+    <t>1245</t>
+  </si>
+  <si>
     <t>Application of Ensemble Learning to Classify Failures in Lithium-ion Batteries</t>
   </si>
   <si>
@@ -82,6 +101,9 @@
     <t>Joelton Deonei Gotz, Milton Borsato, Alceu André Badin</t>
   </si>
   <si>
+    <t>4757</t>
+  </si>
+  <si>
     <t>Implementation of a Reinforcement Learning Application for Production Scheduling Including Practical Constraints</t>
   </si>
   <si>
@@ -91,6 +113,9 @@
     <t>Michael Groth, Matthias Schumann</t>
   </si>
   <si>
+    <t>7984</t>
+  </si>
+  <si>
     <t>Prediction of Machined Surface Roughness Using Cutting Load and Machining History Data</t>
   </si>
   <si>
@@ -106,6 +131,9 @@
     <t>Digital Twins and Manufacturing Systems</t>
   </si>
   <si>
+    <t>9802</t>
+  </si>
+  <si>
     <t>Correlation Analysis Between Predicted MRR and Machining Load in CNC Machining</t>
   </si>
   <si>
@@ -115,6 +143,9 @@
     <t>Seung Ki Kim, Il Hwan Yang, Seung Jun Lee, Dae-Woo Choi, Dong-Won Kim</t>
   </si>
   <si>
+    <t>1418</t>
+  </si>
+  <si>
     <t>Exploring Model-based Design for Conceptual Development of Smart Pharmaceutical Production Equipment</t>
   </si>
   <si>
@@ -124,13 +155,16 @@
     <t>Roland Wölfle, Leonor Teixeira, Irina Saur Amaral</t>
   </si>
   <si>
+    <t>2092</t>
+  </si>
+  <si>
     <t>Improving Environmental Sustainability in Engineer-to-order Manufacturing: A Case Study on Control Cabinets</t>
   </si>
   <si>
     <t>Patrick Bruendl</t>
   </si>
   <si>
-    <t>Patrick Bründl, Marie Egloffstein, Felix Funk, Albert Scheck, Jörg Franke</t>
+    <t>4722</t>
   </si>
   <si>
     <t>Towards Sustainable Digital Transformation in Smes: Integrating IoT, Digital Twins, and AI for Enhanced Manufacturing Efficiency</t>
@@ -148,6 +182,9 @@
     <t>Cybersecurity</t>
   </si>
   <si>
+    <t>4647</t>
+  </si>
+  <si>
     <t>Semantic Technologies and Attributed Role-based-access-control in Policy Frameworks - A Systematic Literature Review</t>
   </si>
   <si>
@@ -157,6 +194,9 @@
     <t>Sandra Starchenko, Sonika Gogineni, Erik Paul Konietzko, Pascal Lünnemann, Kai Lindow</t>
   </si>
   <si>
+    <t>0380</t>
+  </si>
+  <si>
     <t>Enhancing Environmental Sustainability Through Secure and Resilient IoT Software Updates</t>
   </si>
   <si>
@@ -166,6 +206,9 @@
     <t>Akosua Cobbina, Bernard Asare</t>
   </si>
   <si>
+    <t>1733</t>
+  </si>
+  <si>
     <t>Enhancing Cybersecurity in Industrial Iot With Deep Hybrid Learning Models: A Comparative Study of Machine Learning and Deep Learning Approaches</t>
   </si>
   <si>
@@ -175,6 +218,9 @@
     <t>Mohammad Shahin, Mazdak Maghanaki, F. Frank Chen, Ali Hosseinzadeh</t>
   </si>
   <si>
+    <t>3416</t>
+  </si>
+  <si>
     <t>Trustworthy Cross-company Collaboration in Industrial Data Spaces Through Decentralized Authentication and Blockchain Traceability</t>
   </si>
   <si>
@@ -190,12 +236,18 @@
     <t>Resilient Manfuacturing Systems</t>
   </si>
   <si>
+    <t>9163</t>
+  </si>
+  <si>
     <t>Individual Entities and Networks in Production Planning</t>
   </si>
   <si>
     <t>Tomohiro Nakada</t>
   </si>
   <si>
+    <t>7702</t>
+  </si>
+  <si>
     <t>Method for Determining the Most Suitable Grasp TCP for Robot Part Handling</t>
   </si>
   <si>
@@ -205,6 +257,9 @@
     <t>Justus Rein, Jonas Voges, Adrian Reuther, Benjamin Schleich</t>
   </si>
   <si>
+    <t>8202</t>
+  </si>
+  <si>
     <t>The Integration of Lean Six Sigma Solutions and Emerging Technologies for Resilient Manufacturing in The Rail Transportation Sector in South Africa</t>
   </si>
   <si>
@@ -214,6 +269,9 @@
     <t>Genevieve Bakam, Khumbulani Mpofu, Charles Mbohwa, Tshifiwa Nenzhelele</t>
   </si>
   <si>
+    <t>6369</t>
+  </si>
+  <si>
     <t>Facilitating Interoperability in Manufacturing Systems Using Digital Twins: A Proactive Multi-asset AAS System</t>
   </si>
   <si>
@@ -229,6 +287,9 @@
     <t>Process Scheduling and On-Demand Manufacturing</t>
   </si>
   <si>
+    <t>2795</t>
+  </si>
+  <si>
     <t>Sheet Metal Process Planning in The Age of Smart Manufacturing</t>
   </si>
   <si>
@@ -238,15 +299,18 @@
     <t>Eriyeti Murena, Khumbulani Mpofu, Tshifhiwa Nenzhelele</t>
   </si>
   <si>
+    <t>3124</t>
+  </si>
+  <si>
     <t>Quantum Annealing for CAD-based Disassembly Sequence Optimization</t>
   </si>
   <si>
-    <t>Jose Azucena</t>
-  </si>
-  <si>
     <t>Jose Carlos Hernandez Azucena, Joao Paulo Jacomini Prioli</t>
   </si>
   <si>
+    <t>7676</t>
+  </si>
+  <si>
     <t>Digital Hyperconnectivity of Supply Chains With Shop Floors for Material Sustainability</t>
   </si>
   <si>
@@ -256,6 +320,9 @@
     <t>Ayesha Gillani, Tabassum Farhan, Suneela Sardar, Aliyu M Aliyu, Faiz Iqbal</t>
   </si>
   <si>
+    <t>4672</t>
+  </si>
+  <si>
     <t>Performance Evaluation of Copper Cold Plates Manufactured Via Metal Fused Filament Fabrication and Alternative Methods</t>
   </si>
   <si>
@@ -271,6 +338,9 @@
     <t>Flexible and Collaborative Manufacgturing / Human Robot Interaction</t>
   </si>
   <si>
+    <t>7023</t>
+  </si>
+  <si>
     <t>Modular Plc Program Development of A Robotic Work Cell Using Cee Simulation</t>
   </si>
   <si>
@@ -280,6 +350,9 @@
     <t>Mohsin Raza, Arne Bilberg, Matthew Thompson, Naeem Ayoub</t>
   </si>
   <si>
+    <t>7164</t>
+  </si>
+  <si>
     <t>Multimodal Intention Recognition for Dynamic Tool Sharing in Anthropocentric Human-robot Collaborative Applications</t>
   </si>
   <si>
@@ -289,6 +362,9 @@
     <t>Davide Ciaghi, Matteo Manzardo, Gilbert Soto, Renato Vidoni, Luca Gualtieri</t>
   </si>
   <si>
+    <t>8953</t>
+  </si>
+  <si>
     <t>A Fully Automated Method for Identifying Layup Molds With Minimal Robot Touchpoints</t>
   </si>
   <si>
@@ -298,6 +374,9 @@
     <t>Tarek Algeddawy, Nicholas LaBonte, Aydn Cole</t>
   </si>
   <si>
+    <t>6654</t>
+  </si>
+  <si>
     <t>Development of a Talent Management Support System for Sustaining Organizational Human Capability</t>
   </si>
   <si>
@@ -310,6 +389,9 @@
     <t>Global Manufacturing</t>
   </si>
   <si>
+    <t>1108</t>
+  </si>
+  <si>
     <t>Design of a Locally Manufactured, Efficient and Robust Multi-crop Slicer</t>
   </si>
   <si>
@@ -322,6 +404,9 @@
     <t>Julian Aririguzo, Chukwuma Kadurumba, Francis Eji, Tobechi Ohaeri, Hyginus Ugwu</t>
   </si>
   <si>
+    <t>6366</t>
+  </si>
+  <si>
     <t>Exploring The Impact of Localization on Global Manufacturing Collaboration: A System Dynamics Approach</t>
   </si>
   <si>
@@ -331,6 +416,9 @@
     <t>Lucas Khashane, Tshifhiwa Nenzhelele, Mukondeleli Grace Kanakana-Katumba, Genevieve Bakam</t>
   </si>
   <si>
+    <t>8391</t>
+  </si>
+  <si>
     <t>Global Manufacturing Collaboration: Driving Innovation and Sustainability in Rural Areas</t>
   </si>
   <si>
@@ -340,6 +428,9 @@
     <t>Hluphi Mafuwane, Lucas Khashane, Mammo Muchie, Paul Njeni Mabalane, Tshifhiwa Gift Nenzhelele</t>
   </si>
   <si>
+    <t>2854</t>
+  </si>
+  <si>
     <t>Designing Global Supply Chain Network Under Carbon Border Adjustment Mechanism for A Low-carbon Economy</t>
   </si>
   <si>
@@ -352,12 +443,18 @@
     <t>Quality Controls</t>
   </si>
   <si>
+    <t>7579</t>
+  </si>
+  <si>
     <t>Reliability Evaluation of A Two-unit System With Load-sharing under Dependent Degradation-shock Processes</t>
   </si>
   <si>
     <t>Lei Zhou</t>
   </si>
   <si>
+    <t>9938</t>
+  </si>
+  <si>
     <t>A Comparative Wear Evaluation of Chromium-coated Tools in The Drilling of 7075-T6 Aluminum Alloy, AISI 1045 Steel and Stainless Steel AISI 304</t>
   </si>
   <si>
@@ -367,6 +464,9 @@
     <t>Matheus Santos, Gustavo Barbosa, Sidney Shiki</t>
   </si>
   <si>
+    <t>1332</t>
+  </si>
+  <si>
     <t>Productivity Improvement of Transfer Systems for Automotive Stamping Processes</t>
   </si>
   <si>
@@ -376,18 +476,12 @@
     <t>Filipe S. Couto, Raul D.S.G. Campilho, Francisco J.G. Silva</t>
   </si>
   <si>
-    <t>Measurement of The Barrier Properties of Multilayer Plastic Sealing Joints Used in Packaging Applications</t>
-  </si>
-  <si>
-    <t>Sami  Matthews</t>
-  </si>
-  <si>
-    <t>Panu Tanninen, Sami Matthews, Sanaz Afshariantorghabeh, Johanna Lyytikäinen, Ville Leminen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Additive Manufacturing </t>
   </si>
   <si>
+    <t>2366</t>
+  </si>
+  <si>
     <t>A Novel Real-time Defect Analysis Based on Large Language Model in Additive Manufacturing</t>
   </si>
   <si>
@@ -397,6 +491,9 @@
     <t>Miguel Garcia, Martha Asare, Jinghao Yang</t>
   </si>
   <si>
+    <t>8842</t>
+  </si>
+  <si>
     <t>AI-enhanced Real-time Additive Manufacturing Defect Detection Method</t>
   </si>
   <si>
@@ -406,13 +503,16 @@
     <t>Martha Asare, Miguel Garcia, David Aguirre, Jinghao Yang</t>
   </si>
   <si>
+    <t>4651</t>
+  </si>
+  <si>
     <t>Development of A Process Data-based Deposition Simulation for Extrusion-based 3D Printing Processes as a Process Model for Generating Digital Twins</t>
   </si>
   <si>
     <t>Albrecht Hänel</t>
   </si>
   <si>
-    <t>Vasco Sahlbach, Konrad Mauersberger, Albrecht Hänel, Steffen Ihlenfeldt</t>
+    <t>4753</t>
   </si>
   <si>
     <t>Differentially Driven Extrusion System for High Speed FDM 3D Printing</t>
@@ -424,12 +524,18 @@
     <t>Resilent Manfuacturing</t>
   </si>
   <si>
+    <t>5054</t>
+  </si>
+  <si>
     <t>Risk Mitigation in Safety-critical Bolt Torque Settings for Resilience Manufacturing Assemblies</t>
   </si>
   <si>
     <t>Moses Oyesola, Khumbulani Mpofu, Tshifhiwa Nenzhelele, Adrian Jan Swanepoel</t>
   </si>
   <si>
+    <t>5103</t>
+  </si>
+  <si>
     <t>Environmental Sustainability Assessment of Redistributed Manufacturing</t>
   </si>
   <si>
@@ -439,6 +545,9 @@
     <t>Yousef Haddad, Justyna Rybicka, Stuart McLeod, Steve Cartwright, Panagiotis Stavropoulos, Konstantinos Salonitis</t>
   </si>
   <si>
+    <t>8656</t>
+  </si>
+  <si>
     <t>Analysis of Manufacturing System Resilience through Dynamic Resource Allocation and Scheduling</t>
   </si>
   <si>
@@ -448,6 +557,9 @@
     <t>Mohammad Milad Omar, Dusan Sormaz</t>
   </si>
   <si>
+    <t>7892</t>
+  </si>
+  <si>
     <t>A Transnational Case Study of Karakuri Kaizen in Modern Manufacturing Environments</t>
   </si>
   <si>
@@ -460,6 +572,9 @@
     <t>Sustainable System</t>
   </si>
   <si>
+    <t>1215</t>
+  </si>
+  <si>
     <t>Modeling and Optimization of Friction Stir Welding Processes Under Carbon Policy for Low-carbon Production</t>
   </si>
   <si>
@@ -469,6 +584,9 @@
     <t>Thunshun Liao, Yi-Chi Wang</t>
   </si>
   <si>
+    <t>6120</t>
+  </si>
+  <si>
     <t>A Decision Support Model for Efficient Garment Reprocessing for a Sustainable Circular Business Model</t>
   </si>
   <si>
@@ -478,6 +596,9 @@
     <t>Hariketan Patel, Gokula Vasantha, Jonathan Corney, John Quigley, Hanane El Raoui, Rachel Sales, Michael Cusack, Anthony Burns, Andrew Rough</t>
   </si>
   <si>
+    <t>0206</t>
+  </si>
+  <si>
     <t>Techno-economic Analysis and Life Cycle Assessment of Waste Polypropylene Reinforced With Recovered Short Carbon Fibres for 3D-printed Automotive Panels</t>
   </si>
   <si>
@@ -487,18 +608,18 @@
     <t>Paul Njeni Mabalane, Hluphi Constance Mafuwane, Caroline Khoathane, Tshifhiwa Nenzhelele, Khumbulani Mpofu</t>
   </si>
   <si>
+    <t>1617</t>
+  </si>
+  <si>
     <t>Exploring The Impacts of Industry 4.0 Technologies on The Triple Bottom Line of Sustainability in Industrial Companies</t>
   </si>
   <si>
-    <t>Ana Correia  Simões</t>
-  </si>
-  <si>
-    <t>Duarte Almeida, Ana Simões, António Fernandes</t>
-  </si>
-  <si>
     <t>AI in Manufacturing and Decision-Making: Smart Resilient Manufacturing</t>
   </si>
   <si>
+    <t>7976</t>
+  </si>
+  <si>
     <t>Prediction of Tensile Strength and Impact Strength in Fused Deposition Modeling Using A Machine Learning Pipeline</t>
   </si>
   <si>
@@ -508,6 +629,9 @@
     <t>Anne Vogler, Benjamin Küster, Malte Stonis, Ludger Overmeyer</t>
   </si>
   <si>
+    <t>9947</t>
+  </si>
+  <si>
     <t>TinyML-powered Tack Weld Detection for Robotic Welding</t>
   </si>
   <si>
@@ -517,6 +641,9 @@
     <t>Hizza Waseem, Di Wu, Eric Coatanea, Joe David</t>
   </si>
   <si>
+    <t>5484</t>
+  </si>
+  <si>
     <t>The Impact of the Application of Machine Learning Techniques for Dynamic Decision-making in Manufacturing.</t>
   </si>
   <si>
@@ -526,6 +653,9 @@
     <t>Ragosebo Kgaugelo Modise, Khumbulani Mpofu, Tshifhiwa Nenzhelele, Olukorede Adenuga</t>
   </si>
   <si>
+    <t>6164</t>
+  </si>
+  <si>
     <t>Towards Semantic Interoperable and Resilient Manufacturing Process Integrating Generative Artificial Intelligence and Semantic Technologies</t>
   </si>
   <si>
@@ -535,6 +665,9 @@
     <t>Leonardo Cavalcanti Hernandes, Anderson Szejka, Fernando Mas</t>
   </si>
   <si>
+    <t>2253</t>
+  </si>
+  <si>
     <t>Scheduling Considering Design Engineer Skill for Engineer-to-order Manufacturing</t>
   </si>
   <si>
@@ -547,6 +680,9 @@
     <t>Nirmala Liyanaarachchi, Kotomichi Matsuno, Shingo Akasaka, Jiahua Weng</t>
   </si>
   <si>
+    <t>5619</t>
+  </si>
+  <si>
     <t>Enhancing The Production of Toilet Paper to Increase Its Strength and Decrease The Disintegration Index</t>
   </si>
   <si>
@@ -556,6 +692,9 @@
     <t>Marek Chodnicki, Agata Sommer, Marianna Jędrych, Tomasz Woźniak, Hanna Staroszczyk, Mariusz Deja</t>
   </si>
   <si>
+    <t>7127</t>
+  </si>
+  <si>
     <t>Automated Ai Planning for Tool Change in Intelligent Robotized Plug &amp; Produce Manufacturing</t>
   </si>
   <si>
@@ -565,6 +704,9 @@
     <t>Anders Nilsson, Fredrik Danielsson</t>
   </si>
   <si>
+    <t>8127</t>
+  </si>
+  <si>
     <t>Large Language Models for High-level Computer-aided Process Planning in a Distributed Manufacturing Paradigm</t>
   </si>
   <si>
@@ -577,6 +719,9 @@
     <t>AI in Manufacturing and Decision-Making: Adaptive Manufacturing Processes</t>
   </si>
   <si>
+    <t>2917</t>
+  </si>
+  <si>
     <t>Low-temperature Sintering Study for Aerosol Jet Printed Flexible Electronics Across Diverse Substrates</t>
   </si>
   <si>
@@ -586,18 +731,27 @@
     <t>Mariona Martin, Xiao Zhang, Fisseha Gebre, Jose Febres, Jiajun Xu</t>
   </si>
   <si>
+    <t>9999</t>
+  </si>
+  <si>
     <t>Wafer Acceptance Test Based Wafer Sort Current Leakage Prediction for Semiconductor Wafer Supply Planning</t>
   </si>
   <si>
     <t>Kanishkan Tamilarasan</t>
   </si>
   <si>
+    <t>5617</t>
+  </si>
+  <si>
     <t>Heuristic Procedure for Setup Planning of Features With Multiple Processing Requirements and Alternative Processes</t>
   </si>
   <si>
     <t>Mayur Wakhare, Dusan Sormaz, Mohammad Milad Omar</t>
   </si>
   <si>
+    <t>9031</t>
+  </si>
+  <si>
     <t>AI-driven Risk Estimation: a GPT-based Approach to News Monitoring for Manufacturing Resilience</t>
   </si>
   <si>
@@ -610,12 +764,18 @@
     <t>Technologies for Industry 5.0</t>
   </si>
   <si>
+    <t>0497</t>
+  </si>
+  <si>
     <t>Kokou Lissassi</t>
   </si>
   <si>
     <t>Victor Buet, Paul-Eric Dossou, Kokou Lissassi, Christophe Sabourin</t>
   </si>
   <si>
+    <t>1648</t>
+  </si>
+  <si>
     <t>Enhancing Lean Manufacturing Education With Didactic Gaming and Machine Learning: A Human-centric Approach to SMEs Training for Industry 5.0</t>
   </si>
   <si>
@@ -625,6 +785,9 @@
     <t>Enrique Contreras Lopez, F. Frank Chen</t>
   </si>
   <si>
+    <t>5709</t>
+  </si>
+  <si>
     <t>On The Dynamic Capabilities of Manufacturing Companies Towards Industry 5.0 under Volatile Conditions</t>
   </si>
   <si>
@@ -634,6 +797,9 @@
     <t>Zeljko Vukelic, Hrvoje Cajner</t>
   </si>
   <si>
+    <t>7232</t>
+  </si>
+  <si>
     <t>Sustainable Performance in Industry 5.0: Optimizing Supply Chains With Innovative Decision Systems</t>
   </si>
   <si>
@@ -643,6 +809,9 @@
     <t>Carole Tieumena Dongmo, Paul-Eric Dossou</t>
   </si>
   <si>
+    <t>0158</t>
+  </si>
+  <si>
     <t>Enabling Non-smart Assets Using Peripheral Digital Twins</t>
   </si>
   <si>
@@ -652,6 +821,9 @@
     <t>Alexandra Ritter, Manuel Reif, Pascal Rübel, Benjamin Blumhofer, Simon Jungbluth, Martin Ruskowski</t>
   </si>
   <si>
+    <t>2327</t>
+  </si>
+  <si>
     <t>Advanced 3D-printed Scaffolds for Bone Regeneration in Orthodontics: A CBCT-based Approach for Reconstruction</t>
   </si>
   <si>
@@ -661,6 +833,9 @@
     <t>Giuliana Baiamonte, Fulvia Monaco, Giuseppe Laudani, Alessandro Naddeo, Michele Calì</t>
   </si>
   <si>
+    <t>2675</t>
+  </si>
+  <si>
     <t>Enhancing Sustainability and Efficiency in Algae Cultivation Through Iiot and Asset Administration Shell</t>
   </si>
   <si>
@@ -670,6 +845,9 @@
     <t>André Costa, Filipe Ferreira, António Soares</t>
   </si>
   <si>
+    <t>3579</t>
+  </si>
+  <si>
     <t>An Ontology-based Ethical Framework for Green Digifacturing in The South African Energy Sector: A Case Study of Eskom</t>
   </si>
   <si>
@@ -679,6 +857,9 @@
     <t>System Sustainability</t>
   </si>
   <si>
+    <t>2414</t>
+  </si>
+  <si>
     <t>LSTM and Bayesian Computation in Uncertainty Quantification for Wind Energy Forecasting</t>
   </si>
   <si>
@@ -688,12 +869,18 @@
     <t>Mohammed Al-Mahmodi, Hanan Mansi, Changqing Cheng, Frederic Heliodore, Yong Wang</t>
   </si>
   <si>
+    <t>7725</t>
+  </si>
+  <si>
     <t>Assessing The Scope 3 Emissions in Manufacturing Organisations</t>
   </si>
   <si>
     <t>Konstantinos Salonitis, John Patsavellas, Cristina Garcia Llubia</t>
   </si>
   <si>
+    <t>2913</t>
+  </si>
+  <si>
     <t>Unlocking Energy Productivity in Australian SMEs With Industry 4.0</t>
   </si>
   <si>
@@ -703,6 +890,9 @@
     <t>A S M Monjurul Hasan, Chun Wai Cheng, Andrea Trianni</t>
   </si>
   <si>
+    <t>6896</t>
+  </si>
+  <si>
     <t>Optimising Hospital Hvac Systems Medical Heating Equipment Energy Efficiency</t>
   </si>
   <si>
@@ -715,6 +905,9 @@
     <t>Logistics and Operational Management</t>
   </si>
   <si>
+    <t>0891</t>
+  </si>
+  <si>
     <t>Evaluation and Optimization of Logistical Target Values for Cellular Automated Guided Vehicles</t>
   </si>
   <si>
@@ -724,6 +917,9 @@
     <t>Torben Mente, Benjamin Küster, Malte Stonis, Ludger Overmeyer, Peter Nyhuis</t>
   </si>
   <si>
+    <t>9208</t>
+  </si>
+  <si>
     <t>Integrated Engineering Change Management Framework for Efficient Information Flow for Product Design</t>
   </si>
   <si>
@@ -733,6 +929,9 @@
     <t>Adnan Bantwal, Omid Fatahi Valilai</t>
   </si>
   <si>
+    <t>2966</t>
+  </si>
+  <si>
     <t>Optimizing Pricing and Inventory Decisions in Vendor-buyer Supply Chains Through A Multi-agent Artificial Intelligence Framework Under A Stackelberg Game Model</t>
   </si>
   <si>
@@ -742,6 +941,9 @@
     <t>Thi Thuy Dung Dinh, Kang-Ting Ma, Ya-Hui Cheng, Hung-Kai Wang</t>
   </si>
   <si>
+    <t>3598</t>
+  </si>
+  <si>
     <t>Framework to Mitigate Delay Factors in Construction Projects: A Case Study in Ghana</t>
   </si>
   <si>
@@ -757,6 +959,9 @@
     <t>Human Factor in Manufacturing Industry</t>
   </si>
   <si>
+    <t>0168</t>
+  </si>
+  <si>
     <t>Experimental Analysis on Composite Multi-stack Robotic Drilling Operations - Part 1</t>
   </si>
   <si>
@@ -766,6 +971,9 @@
     <t>Iván I. Sanchez, André F. V. Pedroso, Naiara P. V. Sebbe, Raul D. S. G. Campilho, Francisco J. G. da Silva</t>
   </si>
   <si>
+    <t>2747</t>
+  </si>
+  <si>
     <t>Learn Manufacturing Together: Research on Mixed Reality Group Teaching of CNC Machine Tools</t>
   </si>
   <si>
@@ -775,6 +983,9 @@
     <t>Jianhao Chen, Xiao Xiao, Yi Cai</t>
   </si>
   <si>
+    <t>1619</t>
+  </si>
+  <si>
     <t>Workload Analysis of Order Pickers in Robotic Mobile Fulfillment Systems</t>
   </si>
   <si>
@@ -784,6 +995,9 @@
     <t>Yurika Ono, Seiko Taki, Aya Saito, Aya Ishigaki</t>
   </si>
   <si>
+    <t>6562</t>
+  </si>
+  <si>
     <t>Development for a Stable and Effective Seating Allocation Algorithm in Hot-desking With Matching Theory and Network</t>
   </si>
   <si>
@@ -793,6 +1007,9 @@
     <t>Fumikazu Hoyano, Aya Ishigaki</t>
   </si>
   <si>
+    <t>6440</t>
+  </si>
+  <si>
     <t>Use of an Orchestrator to Deploy Digital Twins for Sustainable Manufacturing Use Cases</t>
   </si>
   <si>
@@ -805,6 +1022,9 @@
     <t>Vasiliki Panagiotopoulou, Christos Giannoulis, Konstantinos Salonitis, Panagiotis Stavropoulos</t>
   </si>
   <si>
+    <t>7389</t>
+  </si>
+  <si>
     <t>Comparison of Motion Study and Data Science Methods for Proficiency in Disassembly Task Movement via Motion Capture</t>
   </si>
   <si>
@@ -814,12 +1034,18 @@
     <t>Taku Hayashi, Kei Harada, Koki Karube, Munenori Kakehi, Masao Sugi, Tetsuo Yamada</t>
   </si>
   <si>
+    <t>3509</t>
+  </si>
+  <si>
     <t>Development of An Environmental Sustainability Framework for A Multi-gas Analyzer and The Impact of Emerging Technologies Using Python</t>
   </si>
   <si>
     <t>Chukwuma Kadurumba, Julian Aririguzo, Stan Ingman, Fidelis Abam, Tobechi Ohaeri, Moses Nwagbara, Hyginus Ugwu</t>
   </si>
   <si>
+    <t>9187</t>
+  </si>
+  <si>
     <t>Digital Twins for Intelligent Production of Submarine Optical Fibers</t>
   </si>
   <si>
@@ -829,13 +1055,16 @@
     <t>Giuseppe Laudani, Giorgio Riccobene, Giuliana Baiamonte, Emidio Maria Giorgio, Salvatore Pulvirenti, Salvatore Viola, Sara Pulvirenti, Diego Didac Tortosa, Abdelghani Idrissi, Letizia Stella, Salvatore Aurnia, Michele Calì</t>
   </si>
   <si>
+    <t>0137</t>
+  </si>
+  <si>
     <t>Optimizing Warehouse Intralogistics With Simulation: Combining AMRS and Container Loading Strategies</t>
   </si>
   <si>
     <t>Romão Santos</t>
   </si>
   <si>
-    <t>Romão Santos, Henrique Piqueiro, Ângelo Soares, Abel Mendes, António G Ramos</t>
+    <t>9480</t>
   </si>
   <si>
     <t>Integrating 3D Object Detection With Ontologies for Accurate Digital Twin Creation in Manufacturing Systems</t>
@@ -850,6 +1079,9 @@
     <t>Manufacturing Technologies</t>
   </si>
   <si>
+    <t>5591</t>
+  </si>
+  <si>
     <t>Constructing Transformation Equations for Modeling 4D Printing Re-entrant Honeycomb Structures With Shape Memory Polymers</t>
   </si>
   <si>
@@ -859,13 +1091,7 @@
     <t>Milad Karimpour Lalehdashti, Shengyu Liu, Kyoung-Yun Kim</t>
   </si>
   <si>
-    <t>Feasibility Assessment of A PLA/PHBV Bioplastic Blend for an Industrial Thermoforming Process: Thermoforming Window and Mechanical Strength Evaluation</t>
-  </si>
-  <si>
-    <t>Sanaz Afshariantorghabeh</t>
-  </si>
-  <si>
-    <t>Sanaz Afshariantorghabeh, Panu Tanninen, Sami Matthews, Antti Pesonen, Ville Leminen</t>
+    <t>5642</t>
   </si>
   <si>
     <t>A Hybrid Strategy for Paint Oven Optimization in Aerospace Manufacturing: Lean Principles and Mathematical Modelling</t>
@@ -880,6 +1106,9 @@
     <t>Computer Vision in Manufacturing Systems</t>
   </si>
   <si>
+    <t>3907</t>
+  </si>
+  <si>
     <t>Deep Learning-based Object Detection for Automated Disassembly of Control Cabinets</t>
   </si>
   <si>
@@ -889,6 +1118,9 @@
     <t>Albert Scheck, Patrick Bründl, Jörg Franke</t>
   </si>
   <si>
+    <t>2798</t>
+  </si>
+  <si>
     <t>Enhancing False Call Detection in Automated Optical Inspection Using XGBoost Classifier and XAI Algorithms</t>
   </si>
   <si>
@@ -898,6 +1130,9 @@
     <t>Jenan Albayari, Priyadarsini Patra, Darshil Patel, Daryl Santos</t>
   </si>
   <si>
+    <t>2777</t>
+  </si>
+  <si>
     <t>Real-time Computer Vision System for Monitoring Conveying Systems</t>
   </si>
   <si>
@@ -907,6 +1142,9 @@
     <t>Farouq Halawa, Saloumeh Sadeghzadeh, Raashid Mohammed</t>
   </si>
   <si>
+    <t>4544</t>
+  </si>
+  <si>
     <t>The Performance of Force Compliance Solutions in Cobot-driven Sheet Metal Deburring</t>
   </si>
   <si>
@@ -916,12 +1154,18 @@
     <t>Tarek Algeddawy, Luke Bexelius, Ivan Todd</t>
   </si>
   <si>
+    <t>7291</t>
+  </si>
+  <si>
     <t>Design and Implementation of An Automated Conveying System for Control Cable Terminal Production in The Automotive Industry</t>
   </si>
   <si>
     <t>João P.M. Pinto, Raul D.S.G. Campilho, Francisco J.G. Silva</t>
   </si>
   <si>
+    <t>0507</t>
+  </si>
+  <si>
     <t>A Framework for Integrated Design of Human-robot Collaborative Assembly Workstations</t>
   </si>
   <si>
@@ -934,6 +1178,9 @@
     <t>AI in Manufacturing: Intelligent Process Control</t>
   </si>
   <si>
+    <t>1666</t>
+  </si>
+  <si>
     <t>Machine Learning-enhanced Optimization of PI Controllers for Multivariable Distillation Column</t>
   </si>
   <si>
@@ -943,6 +1190,9 @@
     <t>Vinayambika S Bhat, Yong Wang</t>
   </si>
   <si>
+    <t>2308</t>
+  </si>
+  <si>
     <t>Multimodal Sensory-Textual Fusion for Context-Aware Decision-Making in Railcar Assembly Robots</t>
   </si>
   <si>
@@ -952,6 +1202,9 @@
     <t>Olugbenga Adegbemisola Aderoba, Khumbulani Mpofu, Jan Adriaan Swanepoel, Olukorede Tijani Adenuga</t>
   </si>
   <si>
+    <t>8528</t>
+  </si>
+  <si>
     <t>Robust Parameter Derivation for Lpbfm Process Monitoring: Insights From Melt Pool Analysis of TI64V Single Layer Tracks</t>
   </si>
   <si>
@@ -964,6 +1217,9 @@
     <t>Smart Manufacturing</t>
   </si>
   <si>
+    <t>4698</t>
+  </si>
+  <si>
     <t>Digital Twin for Automated Post-processing Chain in Additive Manufacturing</t>
   </si>
   <si>
@@ -973,6 +1229,9 @@
     <t>Sissy-Linh Nguyen, Omnya Ahmed, Pascal Lünnemann, Robert Joost, Terence Larusch</t>
   </si>
   <si>
+    <t>2613</t>
+  </si>
+  <si>
     <t>Enhancing Manufacturing Performance and Precision With Computer Vision and Human-centric Innovations</t>
   </si>
   <si>
@@ -982,6 +1241,9 @@
     <t>AI in Manufacturing: Manufacturing Intelligence</t>
   </si>
   <si>
+    <t>8491</t>
+  </si>
+  <si>
     <t>BURGAL: An Iterative Guided Active Learning Sampling Approach for Smart Manufacturing Systems</t>
   </si>
   <si>
@@ -994,6 +1256,9 @@
     <t>Abdelrahman Farrag, Nieqing Cao, Mohammed-Khalil Ghali, Yu Jin, Daehan Won</t>
   </si>
   <si>
+    <t>9789</t>
+  </si>
+  <si>
     <t>Resilient Optimal Sensor Placement and Fault Diagnosis of Permanent Magnet Synchronous Motors Within Industrial Manufacturing Applications</t>
   </si>
   <si>
@@ -1003,6 +1268,9 @@
     <t>Rafia Rahman, Anabel Renteria, Sara Kohtz</t>
   </si>
   <si>
+    <t>9320</t>
+  </si>
+  <si>
     <t>Quality Assessment and Fast Geometry Prediction in Paperboard Forming</t>
   </si>
   <si>
@@ -1012,6 +1280,9 @@
     <t>Klara Liesegang, Patrick Link, Georg Steinert, Lena Berthold, Steffen Ihlenfeldt</t>
   </si>
   <si>
+    <t>0726</t>
+  </si>
+  <si>
     <t>Data-driven Process Planning for Machining of Additively Manufactured Components</t>
   </si>
   <si>
@@ -1021,6 +1292,9 @@
     <t>Moritz Goeldner, Jannik Huellemann, Michael F. Zaeh</t>
   </si>
   <si>
+    <t>9751</t>
+  </si>
+  <si>
     <t>Modeling Hardness Surface of 3D Selective Laser Melting Metal Materials</t>
   </si>
   <si>
@@ -1030,6 +1304,9 @@
     <t>Michele Cali, Matej Babič, Giuliana Baiamonte, Sebastiano Magnano, Roman Šturm</t>
   </si>
   <si>
+    <t>8565</t>
+  </si>
+  <si>
     <t>Developing a Thermal Deformation Compensation Mechanism for CNC Lathe Machines</t>
   </si>
   <si>
@@ -1039,6 +1316,9 @@
     <t>Che-Wei Chou, Xuan-Rong Chen, Hwai-Jung Hsu</t>
   </si>
   <si>
+    <t>5230</t>
+  </si>
+  <si>
     <t>Automated Machining Time Identification and Signal Segmentation for CNC Lathe Machines Utilizing G-code Interpreter and CNN Model</t>
   </si>
   <si>
@@ -1048,6 +1328,9 @@
     <t>Che-Wei Chou, Yu-Chieh Chen, Kai-Chun Huang, Hwai-Jung Hsu</t>
   </si>
   <si>
+    <t>9225</t>
+  </si>
+  <si>
     <t>Modeling Flexible Configuration of Cell Finishing for Future Battery Production Research</t>
   </si>
   <si>
@@ -1060,6 +1343,9 @@
     <t>AI in Manufacturing: Advanced Predictive Optimization</t>
   </si>
   <si>
+    <t>9057</t>
+  </si>
+  <si>
     <t>Advanced Forecasting Techniques for Strategic Decision-making in Manufacturing: Analyzing Financial Market Predictive Models</t>
   </si>
   <si>
@@ -1069,19 +1355,16 @@
     <t>Mohammad Shahin, Mazdak Maghanaki, F. Frank Chen, Hamed Mehrzadi, Ali Hosseinzadeh</t>
   </si>
   <si>
+    <t>9371</t>
+  </si>
+  <si>
     <t>Assembly Line Coordination for Fault Tolerance in Railcar Manufacturing Using MADDPG Approach</t>
   </si>
   <si>
     <t>Olugbenga Adegbemisola Aderoba, Khumbulani Mpofu, Jan Adriaan Swanepoel, Moses Oyesola, Ragosebo Kgaugelo Modise</t>
   </si>
   <si>
-    <t>Optimizing Paperboard Press Forming With LSTMs: Unveiling Process Dynamics Through Latent Space Representations</t>
-  </si>
-  <si>
-    <t>Sami Matthews</t>
-  </si>
-  <si>
-    <t>Sami Matthews, Sanaz Afshariantorghabeh, Panu Tanninen, Amir Togiani, Antti Pesonen, Juho Ratava, Juha Varis, Ville Leminen</t>
+    <t>5220</t>
   </si>
   <si>
     <t>Enhancing SMT Assembly Quality Through Mounter Parameter Optimization With A Novel Energy Minimization Logic Simulator and Machine Learning</t>
@@ -1096,6 +1379,9 @@
     <t>Systems Automation</t>
   </si>
   <si>
+    <t>1697</t>
+  </si>
+  <si>
     <t>Wireless Networks-in-network for Automation in Manufacturing</t>
   </si>
   <si>
@@ -1105,13 +1391,13 @@
     <t>Jan Mertes, Marius Schmitz, Daniel Stuber, Daniel Lindenschmitt, Matthias Klar, Bahram Ravani, Hans D. Schotten, Jan C. Aurich</t>
   </si>
   <si>
+    <t>8251</t>
+  </si>
+  <si>
     <t>Concave Geometric Wear Compensation in Automated Flap Wheel Grinding</t>
   </si>
   <si>
-    <t>Falko Kähler</t>
-  </si>
-  <si>
-    <t>Falko Kähler, Jessica Ehrbar, Thorsten Schüppstuhl</t>
+    <t>1222</t>
   </si>
   <si>
     <t>Automated Conformal Coating Coverage Defect Detection in Smart Manufacturing Using Faster R-CNN</t>
@@ -1123,6 +1409,9 @@
     <t>Hemi Patel, Abdelrahman Farrag, Sang Won Yoon, Daehan Won</t>
   </si>
   <si>
+    <t>3231</t>
+  </si>
+  <si>
     <t>Design of a Cruise Control Vibration Deactivation Management System</t>
   </si>
   <si>
@@ -1132,12 +1421,18 @@
     <t>Human-Robot Collaboration</t>
   </si>
   <si>
+    <t>3247</t>
+  </si>
+  <si>
     <t>Gesture Recognition Through Object Detection for Efficient Human-Robot Collaboration</t>
   </si>
   <si>
     <t>Akosua Cobbina, Hoo Sang Ko</t>
   </si>
   <si>
+    <t>3403</t>
+  </si>
+  <si>
     <t>Unleashing the Future of Manufacturing: A Journey Into Industry 5.0's Human-machine Synergy for Enhanced Railway</t>
   </si>
   <si>
@@ -1147,12 +1442,18 @@
     <t>Patience Mofokeng, Luke Oluwabusayo Babalola, Tshifhiwa Nenzhelele</t>
   </si>
   <si>
+    <t>3487</t>
+  </si>
+  <si>
     <t>Impact of Human-Robot Collaboration on Production Resources: An Assessment Framework in Manufacturing</t>
   </si>
   <si>
     <t>A S M Monjurul Hasan, Nazia Mustary Nayna, Md Moniruzzaman Peash, Andrea Trianni</t>
   </si>
   <si>
+    <t>8669</t>
+  </si>
+  <si>
     <t>Robotic Grasp Planning for Unknown Objects Using Real-time Digital Twin Integration</t>
   </si>
   <si>
@@ -1162,7 +1463,7 @@
     <t>Chen Yang Cheng, Tsung-Min Liu, Yen-Hsiang Huang</t>
   </si>
   <si>
-    <t>Emerging Technolgoies / New Product Design</t>
+    <t>3439</t>
   </si>
   <si>
     <t>Fabrication Process of Wearable Electronic Packaging for VR and Biomedical Applications</t>
@@ -1171,18 +1472,27 @@
     <t>Seiichi Takamatsu</t>
   </si>
   <si>
+    <t>5961</t>
+  </si>
+  <si>
     <t>Emerging Technologies and Performing Materials in Manufacturing Dental Prostheses: The Role of Chewing Simulators</t>
   </si>
   <si>
     <t>Giuliana Baiamonte, Giulia Pascoletti, Fulvia Monaco, Michele Calì, Elisabetta Maria Zanetti</t>
   </si>
   <si>
+    <t>3538</t>
+  </si>
+  <si>
     <t>Online 3D-reconstruction of Weld Morphology Using a Structured-light Welding Camera</t>
   </si>
   <si>
     <t>Joe David, Di Wu, Akshay Dhalpe, Jari Kuosmanen, Eric Coatanea</t>
   </si>
   <si>
+    <t>4126</t>
+  </si>
+  <si>
     <t>Intelligent Mixed Reality Platform for CNC Machine and 3D Printer Operation and Management</t>
   </si>
   <si>
@@ -1195,6 +1505,9 @@
     <t xml:space="preserve">Sustainability in the Manufacturing and Energy Systems </t>
   </si>
   <si>
+    <t>4393</t>
+  </si>
+  <si>
     <t>Demand and Capacity Sharing Decisions and Protocols in Multi-microgrid Using Deep Learning</t>
   </si>
   <si>
@@ -1207,6 +1520,9 @@
     <t>Kotaro Akino, Mohammed-Khalil Ghali, Hiromasa Ijuin, Tetsuo Yamada, Sang Won Yoon</t>
   </si>
   <si>
+    <t>4530</t>
+  </si>
+  <si>
     <t>Decision Support System to Promote Cloud Computing Adoption; Case Study of The Upstream Oil and Gas Sector</t>
   </si>
   <si>
@@ -1216,6 +1532,9 @@
     <t>Prof Chike Oduoza, Mahmud Lawan</t>
   </si>
   <si>
+    <t>6716</t>
+  </si>
+  <si>
     <t>Disassembly System Design With Cybersecurity Risk in Remanufactured Products to Maximizing Recovery Rate and Profit</t>
   </si>
   <si>
@@ -1225,6 +1544,9 @@
     <t>Yuki Kinoshita, Tomohiko Yano</t>
   </si>
   <si>
+    <t>5620</t>
+  </si>
+  <si>
     <t>IoT-driven Real-time Indoor Air Quality Monitoring System for Enhanced Environmental Safety</t>
   </si>
   <si>
@@ -1237,6 +1559,9 @@
     <t>Human Factor</t>
   </si>
   <si>
+    <t>2633</t>
+  </si>
+  <si>
     <t>Humans and AI in Harmony? Hybrid Decision Architectures As The Key to Industry 5.0</t>
   </si>
   <si>
@@ -1246,6 +1571,9 @@
     <t>Thorben Krokowski, Daniel Wentzek, Cornelia Regelmann</t>
   </si>
   <si>
+    <t>5206</t>
+  </si>
+  <si>
     <t>Evaluating Impact of Occupational Exoskeletons on Physical Fatigue Using Wearable Sensors and Deep Learning</t>
   </si>
   <si>
@@ -1255,6 +1583,9 @@
     <t>Hardik Vora, Fatemeh Davoudi Kakhki, Armin Moghadam</t>
   </si>
   <si>
+    <t>6992</t>
+  </si>
+  <si>
     <t>Extended Reality for The Inclusion of Disabled Operators: A Systematic Literature Review</t>
   </si>
   <si>
@@ -1264,6 +1595,9 @@
     <t>Marco Lanzone, Luca Gualtieri, Patrick Dallasega</t>
   </si>
   <si>
+    <t>8430</t>
+  </si>
+  <si>
     <t>Human-centric Digitalization - Digital Triplet</t>
   </si>
   <si>
@@ -1276,349 +1610,563 @@
     <t xml:space="preserve">Digital Twins </t>
   </si>
   <si>
+    <t>4065</t>
+  </si>
+  <si>
     <t>Generative Machine Learning Technique for Wire Electrical Discharge Machining Optimization of Inconel 718 - A Predictive Maintenance Approach</t>
   </si>
   <si>
+    <t>Pramodkumar S Kataraki, Vishwanath Koti, Harsha Kusnoorkar, Sha Muzammil Quadri, Ahmad Baharuddin Abdullah</t>
+  </si>
+  <si>
+    <t>5844</t>
+  </si>
+  <si>
+    <t>Enhancing Picking-by-line Operations: A Simulation-based Approach</t>
+  </si>
+  <si>
+    <t>Ana Silva, Romão Santos, Pedro Senna, Frederico Borges, Catarina Marques</t>
+  </si>
+  <si>
+    <t>6488</t>
+  </si>
+  <si>
+    <t>An Accurate Manufacturing Methodology for Automotive Hinges With Close-range Bushings</t>
+  </si>
+  <si>
+    <t>Michele Calì, Gianfranco Di Martino, Sebastiano Magnano, Rita Ambu, Luca Dusini</t>
+  </si>
+  <si>
+    <t>7645</t>
+  </si>
+  <si>
+    <t>Cyber-Physically Controlled Smart Machine Tool Systems - Standardisation Efforts in ISO/TC 184 Versus Controller Implementation in Dynamically Evolving Environments</t>
+  </si>
+  <si>
+    <t>Arvid Hellmich, Simon Harst, Steffen Ihlenfeldt, Christian Friedrich, Albrecht Hänel</t>
+  </si>
+  <si>
+    <t>AI in Manufacturing: Digital Twins</t>
+  </si>
+  <si>
+    <t>1850</t>
+  </si>
+  <si>
+    <t>Multi-stage Predictive Framework for Early Anomaly Detection and Real-time Alerts in Data Center Thermal Systems</t>
+  </si>
+  <si>
+    <t>Rushil Kaushikkumar Patel</t>
+  </si>
+  <si>
+    <t>Rushil Kaushikkumar Patel, Yuxin Yang, Rohan Kulkarni, Sang Won Yoon</t>
+  </si>
+  <si>
+    <t>7196</t>
+  </si>
+  <si>
+    <t>PhyVit-GAN: Physics-guided MobileVit-GAN for Precise Self-alignment Image Generation</t>
+  </si>
+  <si>
+    <t>Manav  Barot</t>
+  </si>
+  <si>
+    <t>Manav Barot, Jaewoo Kim, Daehan Won, Sang Won Yoon</t>
+  </si>
+  <si>
+    <t>9015</t>
+  </si>
+  <si>
+    <t>Digital Twin-enabled Quality Assurance Analysis of Metal Manufactured Parts Based on Neural Networks Applied to 3D Meshes</t>
+  </si>
+  <si>
+    <t>6644</t>
+  </si>
+  <si>
+    <t>Graph Topology-guided Manufacturing Knowledge Representation and Knowledge Integration for Manufacturing Process Selection</t>
+  </si>
+  <si>
+    <t>Yinfeng Shen, Jaemun Sim, Ahmad E. Elhabashy, E. Elcin Gunay, Karl R. Haapala, Gül E. Okudan Kremer, Kyoung-Yun Kim</t>
+  </si>
+  <si>
+    <t>Systems Optimization</t>
+  </si>
+  <si>
+    <t>0747</t>
+  </si>
+  <si>
+    <t>Comparative Analysis Through Experimentation On The Precision and Accuracy of A Collaborative Robot vs. Human Operators in Pick and Place Operations</t>
+  </si>
+  <si>
+    <t>Christopher Greene</t>
+  </si>
+  <si>
+    <t>Christopher Greene, Daniel McGrath</t>
+  </si>
+  <si>
+    <t>2394</t>
+  </si>
+  <si>
+    <t>A Novel Approach for Monocular Rgb-based Ergonomics Monitoring in Industrial Workspaces Employing Synthetic Datasets to Train A Deep Learning Model</t>
+  </si>
+  <si>
+    <t>Thomas Agostinelli</t>
+  </si>
+  <si>
+    <t>Thomas Agostinelli, Andrea Generosi, Maura Mengoni</t>
+  </si>
+  <si>
+    <t>7832</t>
+  </si>
+  <si>
+    <t>Optimization of Metal Sheet Cutting Processes Using Integer Linear Programming: Reducing Waste and Enhancing Production Efficiency</t>
+  </si>
+  <si>
+    <t>Maria Teresa Pereira</t>
+  </si>
+  <si>
+    <t>Maria Pereira, Marisa G. Pereira, Fernanda A. Ferreira, Francisco G. Silva, André Martins Guimarães</t>
+  </si>
+  <si>
+    <t>9895</t>
+  </si>
+  <si>
+    <t>Towards A Roadmap From Topological Optimisation to Laser Powder Bed Fusion for Structural Machine Parts</t>
+  </si>
+  <si>
+    <t>Georgios Christoforos Vosniakos</t>
+  </si>
+  <si>
+    <t>Pavlos Vasiloglou, George-Christopher Vosniakos, Marek Chodnicki</t>
+  </si>
+  <si>
+    <t>Smart Systems</t>
+  </si>
+  <si>
+    <t>9299</t>
+  </si>
+  <si>
+    <t>Effectiveness Evaluation of a Virtual Reality Environment for CNC Machine Tool Training</t>
+  </si>
+  <si>
+    <t>Emmanuel Stathatos, Alina Guzik, George-Christopher Vosniakos, Panorios Benardos</t>
+  </si>
+  <si>
+    <t>3447</t>
+  </si>
+  <si>
+    <t>A Novel Approach to Recognition and Embedding of The Machining Feature for Mechanical Parts</t>
+  </si>
+  <si>
+    <t>Zirui Li</t>
+  </si>
+  <si>
+    <t>Zirui Li, Xiaomeng Tong, Maolin Cai, Weiqing Xu, Xuwen Zhao</t>
+  </si>
+  <si>
+    <t>2786</t>
+  </si>
+  <si>
+    <t>Ensemble Learning Approaches for Automated Defect Detection: Integrating Computer Vision and Machine Learning Techniques</t>
+  </si>
+  <si>
+    <t>Mohammad Shahin, F. Frank Chen, Mazdak Maghanaki, Ali Hosseinzadeh</t>
+  </si>
+  <si>
+    <t>8944</t>
+  </si>
+  <si>
+    <t>Data-driven Lean Six Sigma: Enhancing Agility and Productivity in Die Maintenance Process</t>
+  </si>
+  <si>
+    <t>Rasoul Rashidifar, Matthew Silvas, F. Frank Chen, Nafiseh Ebrahimi, Mohammad Shahin, Peng Cheng</t>
+  </si>
+  <si>
+    <t>Emerging Technologies</t>
+  </si>
+  <si>
+    <t>4241</t>
+  </si>
+  <si>
+    <t>Method for Determining The Stiffness of Milling Robots In-process Using Internal Sensor Data</t>
+  </si>
+  <si>
+    <t>Jannik Huellemann</t>
+  </si>
+  <si>
+    <t>June 23, 2:25 PM to 3:45 PM</t>
+  </si>
+  <si>
+    <t>Jannik Huellemann, Moritz Goeldner, S. Patrick Kuntz, Michael F. Zaeh</t>
+  </si>
+  <si>
+    <t>5956</t>
+  </si>
+  <si>
+    <t>A Sustainability-centric Assessment Framework for Digital Solutions Across Industries</t>
+  </si>
+  <si>
+    <t>Svenja Nicole Schulte</t>
+  </si>
+  <si>
+    <t>Svenja Nicole Schulte, Sissy-Linh Nguyen, Carina Fresemann, Nadja Siller, Rasool Okhovat, Rainer Stark</t>
+  </si>
+  <si>
+    <t>7696</t>
+  </si>
+  <si>
+    <t>The Impact of Emerging Technologies in Metal-additive Manufacturing</t>
+  </si>
+  <si>
+    <t>Taoreed Adegbola</t>
+  </si>
+  <si>
+    <t>Theo-Neal Willando Jade Booysen, Taoreed Adesola Adegbola, Tamba Jamiru</t>
+  </si>
+  <si>
+    <t>8088</t>
+  </si>
+  <si>
+    <t>A Framework for Mapping Industry 5.0 Technologies for SMEs</t>
+  </si>
+  <si>
+    <t>2579</t>
+  </si>
+  <si>
+    <t>Development of a Robotic Additive Manufacturing Cell Based on The LMD-wire Process</t>
+  </si>
+  <si>
+    <t>Brayan Stiven Figueroa Betancourth</t>
+  </si>
+  <si>
+    <t>Brayan Stiven Figueroa, Alberto Jose Alvares</t>
+  </si>
+  <si>
+    <t>7954</t>
+  </si>
+  <si>
+    <t>Simulation-driven Approach for Dimensioning Amr Fleets in Distribution Centre Logistics</t>
+  </si>
+  <si>
+    <t>Henrique Piqueiro</t>
+  </si>
+  <si>
+    <t>Henrique Piqueiro, Romão Santos, António Almeida, João Lopes</t>
+  </si>
+  <si>
+    <t>9892</t>
+  </si>
+  <si>
+    <t>Intelligent Automatic Storage and Retrieval Systems for Flexible Manufacturing</t>
+  </si>
+  <si>
+    <t>Evangelos Vavylousakis, George-C. Vosniakos, Angeliki Grypari, Jesica Rat</t>
+  </si>
+  <si>
+    <t>2074</t>
+  </si>
+  <si>
+    <t>Skill-based Adaptation Through Intuitive Interfaces: Multi-modal Guidance Systems for Industrial Environments</t>
+  </si>
+  <si>
+    <t>Johann Mitteramskogler</t>
+  </si>
+  <si>
+    <t>Sharath Akkaladevi, Johann Mitteramskogler, Gerhard Ebenhofer, Andreas Pichler</t>
+  </si>
+  <si>
+    <t>AI in Manufacturing: Process Optimization and Diagnostics</t>
+  </si>
+  <si>
+    <t>3724</t>
+  </si>
+  <si>
+    <t>Investigating The Influence of Prompt Design in The Generation of Failure Mode and Effects Analysis for Manufacturing Processes Using Large Language Models</t>
+  </si>
+  <si>
+    <t>Marcel Wagner</t>
+  </si>
+  <si>
+    <t>Marcel Wagner, Fabian Frideres, Maik Schürmann, Matthias Klar, Jan C. Aurich</t>
+  </si>
+  <si>
+    <t>7170</t>
+  </si>
+  <si>
+    <t>Incorporating Process Quality Capability Into Process Parameter Tuning for High-voltage Power Cable Manufacturing</t>
+  </si>
+  <si>
+    <t>Chao-Lung Yang</t>
+  </si>
+  <si>
+    <t>Chao-Lung Yang, Tzu-Hsien Chu, Guan-Ying Chen, Chae-Wu Huang</t>
+  </si>
+  <si>
+    <t>5611</t>
+  </si>
+  <si>
+    <t>A Convolutional-neural-network-based Mounter Defect Diagnostic Module for Multiple Issues Detection and Simulation in Pick-and-Place Process</t>
+  </si>
+  <si>
+    <t>Zhenxuan Zhang</t>
+  </si>
+  <si>
+    <t>Zhenxuan Zhang, Jaewoo Kim, Daehan Won</t>
+  </si>
+  <si>
+    <t>5136</t>
+  </si>
+  <si>
+    <t>Intelligent Battery Design Method Based on Deep Learning Algorithm</t>
+  </si>
+  <si>
+    <t>Fenfen Wang, Kaichuang Zhang, Jinghao Yang</t>
+  </si>
+  <si>
+    <t>9040</t>
+  </si>
+  <si>
+    <t>Simulation-driven Decision-making for Process Optimization for Gate Valve Value Stream Production Line</t>
+  </si>
+  <si>
+    <t>Anush Kumar  Gunalan</t>
+  </si>
+  <si>
+    <t>Anush Kumar Gunalan, Saurabh Naik, Sangwon Yoon, Zimo Wang, Spencer Ortell</t>
+  </si>
+  <si>
+    <t>5587</t>
+  </si>
+  <si>
+    <t>Gathering Personalized Design Requirements via Digital Twin</t>
+  </si>
+  <si>
+    <t>Garrett Robison</t>
+  </si>
+  <si>
+    <t>Garrett Robison, James Noble, Luis Occena</t>
+  </si>
+  <si>
+    <t>9184</t>
+  </si>
+  <si>
+    <t>Numerical and Experimental Investigation of Mechanical Properties of Carbon Fiber Reinforced Parts</t>
+  </si>
+  <si>
+    <t>Akincan Sure, Ulas Yaman, M.A. Sahir Arikan</t>
+  </si>
+  <si>
+    <t>4948</t>
+  </si>
+  <si>
+    <t>A High Throughput Experimental System for The Continuous Casting of Glass-coated Microwires</t>
+  </si>
+  <si>
+    <t>Ahmed Alajlouni</t>
+  </si>
+  <si>
+    <t>Ahmed Alajlouni, Sajjad Boorghan Farahan, Mohammad Mohammad Hosseini, Jingzhou Zhao</t>
+  </si>
+  <si>
+    <t>Green Manufacturing Systems</t>
+  </si>
+  <si>
+    <t>5621</t>
+  </si>
+  <si>
+    <t>Development of an Energy Consumption Monitoring and Prediction Model for CNC Machine Tools Using The Taguchi Method Integrated With Machine Learning</t>
+  </si>
+  <si>
+    <t>Chir-Jang Tsai</t>
+  </si>
+  <si>
+    <t>Tung Hsien Hsieh, Yu-Hsin Chiu, Wei-Ting Lo, Yu-Cheng Huang, Kuan-Yu Yeh, Jing-Chung Shen, Meng-Hua Li, Chir-Jang Tsai</t>
+  </si>
+  <si>
+    <t>4356</t>
+  </si>
+  <si>
+    <t>Research of Image-based Layer Geometry Monitoring System Combining With ROS2 Platform for WAAM Process</t>
+  </si>
+  <si>
+    <t>Di Wu</t>
+  </si>
+  <si>
+    <t>Di Wu, Joe David, Jari Kuosmanen, Eric Coatanea</t>
+  </si>
+  <si>
+    <t>3225</t>
+  </si>
+  <si>
+    <t>Dematerialization &amp; Knowledge as Manufacturing Attributes: Dimensionless Metrics</t>
+  </si>
+  <si>
+    <t>Alexios Papacharalampopoulos, Panagiotis Stavropoulos</t>
+  </si>
+  <si>
+    <t>8124</t>
+  </si>
+  <si>
+    <t>Data Model for Ecological Sustainability in Manufacturing: A Digital Product Passport Approach</t>
+  </si>
+  <si>
+    <t>Samed  Ajdinovic</t>
+  </si>
+  <si>
+    <t>Samed Ajdinovic, Nicolai Maisch, Alexander Gückel, Armin Lechler, Oliver Riedel</t>
+  </si>
+  <si>
+    <t>Systems Sustainablity</t>
+  </si>
+  <si>
+    <t>6967</t>
+  </si>
+  <si>
+    <t>Blockchain for Secure Manufacturing &amp; Energy Systems</t>
+  </si>
+  <si>
+    <t>Yogi Joshi</t>
+  </si>
+  <si>
+    <t>Yogi Bhadreshkuamar Joshi, Satyam Kumar Singh</t>
+  </si>
+  <si>
+    <t>0633</t>
+  </si>
+  <si>
+    <t>A System Dynamics Modelling Approach to Improve Passenger Transportation System in South Africa: A Case of The City of Tshwane</t>
+  </si>
+  <si>
+    <t>Tshifhiwa Nenzhelele, Lucas Khashane, Khumbulani Mpofu</t>
+  </si>
+  <si>
+    <t>3908</t>
+  </si>
+  <si>
+    <t>Quality 4.0 As A Driver for Corporate Sustainability: An Approach for Integrating Esg Strategy Into Business Operations</t>
+  </si>
+  <si>
+    <t>Roberto Sato, Joelton Gotz, Milton Borsato, Fabiana Macedo, Erika Michalick</t>
+  </si>
+  <si>
+    <t>4451</t>
+  </si>
+  <si>
+    <t>A Scheduling Decision-making Framework Using Machine Learning Algorithm for Energy Efficient Integrated Factory</t>
+  </si>
+  <si>
+    <t>Hariketan Patel, Gokula Vasantha, Jonathan Corney, John Quigley, Hanane El Raoui, Rachel Sales, Simon Smith</t>
+  </si>
+  <si>
+    <t>Effective Strategy Development and Implementation in SMEs
+Using Hoshin Kanri Method</t>
+  </si>
+  <si>
+    <t>Munir Ahmad</t>
+  </si>
+  <si>
+    <t>Development of a Human-Robot collaboration Framework using Computer Vision for Collaborative Robotics in Industry 5.0</t>
+  </si>
+  <si>
+    <t>Mohamad Kraker, Mohammad Munir Ahmad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Joao Paulo Jacomini Prioli</t>
+  </si>
+  <si>
+    <t>Thabo Jameson Selowa</t>
+  </si>
+  <si>
     <t>Harsha Kusnoorkar</t>
   </si>
   <si>
-    <t>Pramodkumar S Kataraki, Vishwanath Koti, Harsha Kusnoorkar, Sha Muzammil Quadri, Ahmad Baharuddin Abdullah</t>
-  </si>
-  <si>
-    <t>Enhancing Picking-by-line Operations: A Simulation-based Approach</t>
-  </si>
-  <si>
-    <t>Ana Silva, Romão Santos, Pedro Senna, Frederico Borges, Catarina Marques</t>
-  </si>
-  <si>
-    <t>An Accurate Manufacturing Methodology for Automotive Hinges With Close-range Bushings</t>
-  </si>
-  <si>
-    <t>Michele Calì, Gianfranco Di Martino, Sebastiano Magnano, Rita Ambu, Luca Dusini</t>
-  </si>
-  <si>
-    <t>Cyber-Physically Controlled Smart Machine Tool Systems - Standardisation Efforts in ISO/TC 184 Versus Controller Implementation in Dynamically Evolving Environments</t>
-  </si>
-  <si>
-    <t>Arvid Hellmich, Simon Harst, Steffen Ihlenfeldt, Christian Friedrich, Albrecht Hänel</t>
-  </si>
-  <si>
-    <t>AI in Manufacturing: Digital Twins</t>
-  </si>
-  <si>
-    <t>Multi-stage Predictive Framework for Early Anomaly Detection and Real-time Alerts in Data Center Thermal Systems</t>
-  </si>
-  <si>
-    <t>Rushil Kaushikkumar Patel</t>
-  </si>
-  <si>
-    <t>Rushil Kaushikkumar Patel, Yuxin Yang, Rohan Kulkarni, Sang Won Yoon</t>
-  </si>
-  <si>
-    <t>PhyVit-GAN: Physics-guided MobileVit-GAN for Precise Self-alignment Image Generation</t>
-  </si>
-  <si>
-    <t>Manav  Barot</t>
-  </si>
-  <si>
-    <t>Manav Barot, Jaewoo Kim, Daehan Won, Sang Won Yoon</t>
-  </si>
-  <si>
-    <t>Digital Twin-enabled Quality Assurance Analysis of Metal Manufactured Parts Based on Neural Networks Applied to 3D Meshes</t>
-  </si>
-  <si>
-    <t>João Vítor Arantes Cabral</t>
-  </si>
-  <si>
-    <t>João Vítor Arantes Cabral, Antônio Carlos da Cunha Facciolli, Guilherme Caribé de Carvalho, Alberto José Álvares</t>
-  </si>
-  <si>
-    <t>Graph Topology-guided Manufacturing Knowledge Representation and Knowledge Integration for Manufacturing Process Selection</t>
-  </si>
-  <si>
-    <t>Yinfeng Shen, Jaemun Sim, Ahmad E. Elhabashy, E. Elcin Gunay, Karl R. Haapala, Gül E. Okudan Kremer, Kyoung-Yun Kim</t>
-  </si>
-  <si>
-    <t>Systems Optimization</t>
-  </si>
-  <si>
-    <t>Comparative Analysis Through Experimentation On The Precision and Accuracy of A Collaborative Robot vs. Human Operators in Pick and Place Operations</t>
-  </si>
-  <si>
-    <t>Christopher Greene</t>
-  </si>
-  <si>
-    <t>Christopher Greene, Daniel McGrath</t>
-  </si>
-  <si>
-    <t>A Novel Approach for Monocular Rgb-based Ergonomics Monitoring in Industrial Workspaces Employing Synthetic Datasets to Train A Deep Learning Model</t>
-  </si>
-  <si>
-    <t>Thomas Agostinelli</t>
-  </si>
-  <si>
-    <t>Thomas Agostinelli, Andrea Generosi, Maura Mengoni</t>
-  </si>
-  <si>
-    <t>Optimization of Metal Sheet Cutting Processes Using Integer Linear Programming: Reducing Waste and Enhancing Production Efficiency</t>
-  </si>
-  <si>
-    <t>Maria Teresa Pereira</t>
-  </si>
-  <si>
-    <t>Maria Pereira, Marisa G. Pereira, Fernanda A. Ferreira, Francisco G. Silva, André Martins Guimarães</t>
-  </si>
-  <si>
-    <t>Towards A Roadmap From Topological Optimisation to Laser Powder Bed Fusion for Structural Machine Parts</t>
-  </si>
-  <si>
-    <t>Georgios Christoforos Vosniakos</t>
-  </si>
-  <si>
-    <t>Pavlos Vasiloglou, George-Christopher Vosniakos, Marek Chodnicki</t>
-  </si>
-  <si>
-    <t>Smart Systems</t>
-  </si>
-  <si>
-    <t>Effectiveness Evaluation of a Virtual Reality Environment for CNC Machine Tool Training</t>
-  </si>
-  <si>
-    <t>Emmanuel Stathatos, Alina Guzik, George-Christopher Vosniakos, Panorios Benardos</t>
-  </si>
-  <si>
-    <t>A Novel Approach to Recognition and Embedding of The Machining Feature for Mechanical Parts</t>
-  </si>
-  <si>
-    <t>Zirui Li</t>
-  </si>
-  <si>
-    <t>Zirui Li, Xiaomeng Tong, Maolin Cai, Weiqing Xu, Xuwen Zhao</t>
-  </si>
-  <si>
-    <t>Ensemble Learning Approaches for Automated Defect Detection: Integrating Computer Vision and Machine Learning Techniques</t>
-  </si>
-  <si>
-    <t>Mohammad Shahin, F. Frank Chen, Mazdak Maghanaki, Ali Hosseinzadeh</t>
-  </si>
-  <si>
-    <t>Data-driven Lean Six Sigma: Enhancing Agility and Productivity in Die Maintenance Process</t>
-  </si>
-  <si>
-    <t>Nafiseh Ebrahimi</t>
-  </si>
-  <si>
-    <t>Rasoul Rashidifar, Matthew Silvas, F. Frank Chen, Nafiseh Ebrahimi, Mohammad Shahin, Peng Cheng</t>
-  </si>
-  <si>
-    <t>Emerging Technologies</t>
-  </si>
-  <si>
-    <t>Method for Determining The Stiffness of Milling Robots In-process Using Internal Sensor Data</t>
-  </si>
-  <si>
-    <t>Jannik Huellemann</t>
-  </si>
-  <si>
-    <t>June 23, 2:25 PM to 3:45 PM</t>
-  </si>
-  <si>
-    <t>Jannik Huellemann, Moritz Goeldner, S. Patrick Kuntz, Michael F. Zaeh</t>
-  </si>
-  <si>
-    <t>A Sustainability-centric Assessment Framework for Digital Solutions Across Industries</t>
-  </si>
-  <si>
-    <t>Svenja Nicole Schulte</t>
-  </si>
-  <si>
-    <t>Svenja Nicole Schulte, Sissy-Linh Nguyen, Carina Fresemann, Nadja Siller, Rasool Okhovat, Rainer Stark</t>
-  </si>
-  <si>
-    <t>The Impact of Emerging Technologies in Metal-additive Manufacturing</t>
-  </si>
-  <si>
-    <t>Taoreed Adegbola</t>
-  </si>
-  <si>
-    <t>Theo-Neal Willando Jade Booysen, Taoreed Adesola Adegbola, Tamba Jamiru</t>
-  </si>
-  <si>
-    <t>A Framework for Mapping Industry 5.0 Technologies for SMEs</t>
-  </si>
-  <si>
-    <t>Torbjørn Leirmo</t>
-  </si>
-  <si>
-    <t>Torbjørn Leirmo, Olga Ogorodnyk, Yashoda Karki, Endre Sølvsberg</t>
-  </si>
-  <si>
-    <t>Development of a Robotic Additive Manufacturing Cell Based on The LMD-wire Process</t>
-  </si>
-  <si>
-    <t>Brayan Stiven Figueroa Betancourth</t>
-  </si>
-  <si>
-    <t>Brayan Stiven Figueroa, Alberto Jose Alvares</t>
-  </si>
-  <si>
-    <t>Simulation-driven Approach for Dimensioning Amr Fleets in Distribution Centre Logistics</t>
-  </si>
-  <si>
-    <t>Henrique Piqueiro</t>
-  </si>
-  <si>
-    <t>Henrique Piqueiro, Romão Santos, António Almeida, João Lopes</t>
-  </si>
-  <si>
-    <t>Intelligent Automatic Storage and Retrieval Systems for Flexible Manufacturing</t>
-  </si>
-  <si>
-    <t>Evangelos Vavylousakis, George-C. Vosniakos, Angeliki Grypari, Jesica Rat</t>
-  </si>
-  <si>
-    <t>Skill-based Adaptation Through Intuitive Interfaces: Multi-modal Guidance Systems for Industrial Environments</t>
-  </si>
-  <si>
-    <t>Johann Mitteramskogler</t>
-  </si>
-  <si>
-    <t>Sharath Akkaladevi, Johann Mitteramskogler, Gerhard Ebenhofer, Andreas Pichler</t>
-  </si>
-  <si>
-    <t>AI in Manufacturing: Process Optimization and Diagnostics</t>
-  </si>
-  <si>
-    <t>Investigating The Influence of Prompt Design in The Generation of Failure Mode and Effects Analysis for Manufacturing Processes Using Large Language Models</t>
-  </si>
-  <si>
-    <t>Marcel Wagner</t>
-  </si>
-  <si>
-    <t>Marcel Wagner, Fabian Frideres, Maik Schürmann, Matthias Klar, Jan C. Aurich</t>
-  </si>
-  <si>
-    <t>Incorporating Process Quality Capability Into Process Parameter Tuning for High-voltage Power Cable Manufacturing</t>
-  </si>
-  <si>
-    <t>Chao-Lung Yang</t>
-  </si>
-  <si>
-    <t>Chao-Lung Yang, Tzu-Hsien Chu, Guan-Ying Chen, Chae-Wu Huang</t>
-  </si>
-  <si>
-    <t>A Convolutional-neural-network-based Mounter Defect Diagnostic Module for Multiple Issues Detection and Simulation in Pick-and-Place Process</t>
-  </si>
-  <si>
-    <t>Zhenxuan Zhang</t>
-  </si>
-  <si>
-    <t>Zhenxuan Zhang, Jaewoo Kim, Daehan Won</t>
-  </si>
-  <si>
-    <t>Intelligent Battery Design Method Based on Deep Learning Algorithm</t>
-  </si>
-  <si>
-    <t>Fenfen Wang, Kaichuang Zhang, Jinghao Yang</t>
-  </si>
-  <si>
-    <t>Simulation-driven Decision-making for Process Optimization for Gate Valve Value Stream Production Line</t>
-  </si>
-  <si>
-    <t>Anush Kumar  Gunalan</t>
-  </si>
-  <si>
-    <t>Anush Kumar Gunalan, Saurabh Naik, Sangwon Yoon, Zimo Wang, Spencer Ortell</t>
-  </si>
-  <si>
-    <t>Gathering Personalized Design Requirements via Digital Twin</t>
-  </si>
-  <si>
-    <t>Garrett Robison</t>
-  </si>
-  <si>
-    <t>Garrett Robison, James Noble, Luis Occena</t>
-  </si>
-  <si>
-    <t>Numerical and Experimental Investigation of Mechanical Properties of Carbon Fiber Reinforced Parts</t>
-  </si>
-  <si>
-    <t>Akincan Sure, Ulas Yaman, M.A. Sahir Arikan</t>
-  </si>
-  <si>
-    <t>A High Throughput Experimental System for The Continuous Casting of Glass-coated Microwires</t>
-  </si>
-  <si>
-    <t>Ahmed Alajlouni</t>
-  </si>
-  <si>
-    <t>Ahmed Alajlouni, Sajjad Boorghan Farahan, Mohammad Mohammad Hosseini, Jingzhou Zhao</t>
-  </si>
-  <si>
-    <t>Green Manufacturing Systems</t>
-  </si>
-  <si>
-    <t>Development of an Energy Consumption Monitoring and Prediction Model for CNC Machine Tools Using The Taguchi Method Integrated With Machine Learning</t>
-  </si>
-  <si>
-    <t>Chir-Jang Tsai</t>
-  </si>
-  <si>
-    <t>Tung Hsien Hsieh, Yu-Hsin Chiu, Wei-Ting Lo, Yu-Cheng Huang, Kuan-Yu Yeh, Jing-Chung Shen, Meng-Hua Li, Chir-Jang Tsai</t>
-  </si>
-  <si>
-    <t>Research of Image-based Layer Geometry Monitoring System Combining With ROS2 Platform for WAAM Process</t>
-  </si>
-  <si>
-    <t>Di Wu</t>
-  </si>
-  <si>
-    <t>Di Wu, Joe David, Jari Kuosmanen, Eric Coatanea</t>
-  </si>
-  <si>
-    <t>Dematerialization &amp; Knowledge as Manufacturing Attributes: Dimensionless Metrics</t>
-  </si>
-  <si>
-    <t>Alexios Papacharalampopoulos, Panagiotis Stavropoulos</t>
-  </si>
-  <si>
-    <t>Data Model for Ecological Sustainability in Manufacturing: A Digital Product Passport Approach</t>
-  </si>
-  <si>
-    <t>Samed  Ajdinovic</t>
-  </si>
-  <si>
-    <t>Samed Ajdinovic, Nicolai Maisch, Alexander Gückel, Armin Lechler, Oliver Riedel</t>
-  </si>
-  <si>
-    <t>Systems Sustainablity</t>
-  </si>
-  <si>
-    <t>Blockchain for Secure Manufacturing &amp; Energy Systems</t>
-  </si>
-  <si>
-    <t>Yogi Joshi</t>
-  </si>
-  <si>
-    <t>Yogi Bhadreshkuamar Joshi, Satyam Kumar Singh</t>
-  </si>
-  <si>
-    <t>A System Dynamics Modelling Approach to Improve Passenger Transportation System in South Africa: A Case of The City of Tshwane</t>
-  </si>
-  <si>
-    <t>Tshifhiwa Nenzhelele, Lucas Khashane, Khumbulani Mpofu</t>
-  </si>
-  <si>
-    <t>Quality 4.0 As A Driver for Corporate Sustainability: An Approach for Integrating Esg Strategy Into Business Operations</t>
-  </si>
-  <si>
-    <t>Roberto Sato, Joelton Gotz, Milton Borsato, Fabiana Macedo, Erika Michalick</t>
-  </si>
-  <si>
-    <t>A Scheduling Decision-making Framework Using Machine Learning Algorithm for Energy Efficient Integrated Factory</t>
-  </si>
-  <si>
-    <t>Hariketan Patel, Gokula Vasantha, Jonathan Corney, John Quigley, Hanane El Raoui, Rachel Sales, Simon Smith</t>
+    <t>Rasoul Rashidifar</t>
+  </si>
+  <si>
+    <t>Patrick Bruendl, Marie Egloffstein, Felix Funk, Albert Scheck, Jörg Franke</t>
+  </si>
+  <si>
+    <t>Signal Synchronization and Segmentation in CNC Lathe Machines</t>
+  </si>
+  <si>
+    <t>Che-Wei Chou</t>
+  </si>
+  <si>
+    <t>Albrecht Hanel</t>
+  </si>
+  <si>
+    <t>Vasco Sahlbach, Konrad Mauersberger, Albrecht Hanel, Steffen Ihlenfeldt</t>
+  </si>
+  <si>
+    <t>Ana Correia  Simoes</t>
+  </si>
+  <si>
+    <t>Duarte Almeida, Ana Simoes, Antonio Fernandes</t>
+  </si>
+  <si>
+    <t>An Exploration of Design Approaches for Cutting Edge Technology Adoption</t>
+  </si>
+  <si>
+    <t>Enhancing Digital Technology through a Comparative Analysis of Emerging Technologies Impact on Textile Manufacturing Industry</t>
+  </si>
+  <si>
+    <t>Paul Njeni Mabalane</t>
+  </si>
+  <si>
+    <t>0989</t>
+  </si>
+  <si>
+    <t>Production Planning Optimization Model Considering Line Availability in  Semiconductor Manufacturing</t>
+  </si>
+  <si>
+    <t>Seunghoon Lee</t>
+  </si>
+  <si>
+    <t>Romao Santos</t>
+  </si>
+  <si>
+    <t>Romao Santos, Henrique Piqueiro, Angelo Soares, Abel Mendes, Antonio G Ramos</t>
+  </si>
+  <si>
+    <t>Joanna Steiner</t>
+  </si>
+  <si>
+    <t>Towards a Sustainable Aerospace Industry: A Concept for a standardized  Life Cycle Assessment Data Exchange in the Aviation Supply Chains</t>
+  </si>
+  <si>
+    <t>Falko Kahler</t>
+  </si>
+  <si>
+    <t>Falko Kahler, Jessica Ehrbar, Thorsten Schuppstuhl</t>
+  </si>
+  <si>
+    <t>Joao Vitor Arantes Cabral, Antonio Carlos da Cunha Facciolli, Guilherme Caribe de Carvalho, Alberto Jose alvares</t>
+  </si>
+  <si>
+    <t>Joao Vitor Arantes Cabral</t>
+  </si>
+  <si>
+    <t>Torbjorn Leirmo</t>
+  </si>
+  <si>
+    <t>Torbjorn Leirmo, Olga Ogorodnyk, Yashoda Karki, Endre Solvsberg</t>
+  </si>
+  <si>
+    <t>Joanna Steiner, Nico Topfer, Jonas Klumski, Theresa Riedelsheimer, Kai Lindow</t>
+  </si>
+  <si>
+    <t>Dongwoo Go, Taeho Kim, Seughoon Lee</t>
+  </si>
+  <si>
+    <t>Eriyeti Murena, Khumbulani Mpofu, Tshifhiwa Nenzhelele, Paul Njeni Mabalane</t>
+  </si>
+  <si>
+    <t>David Ndiyamba, Eriyeti Murena, Khumbulani Mpofu, Egina Nyati, Thabo Jameson Selowa, Lameck Mugwagwa</t>
+  </si>
+  <si>
+    <t>Che-Wei Chou, Yu-Chieh Chen, Hwai-Jung Hsu, Kai-Chun Huang</t>
+  </si>
+  <si>
+    <t>Emerging Technologies / New Product Design</t>
   </si>
 </sst>
 </file>
@@ -1640,12 +2188,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1675,11 +2229,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1982,13 +2539,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K170"/>
+  <dimension ref="A1:K172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121:C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -2038,23 +2600,23 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>2968</v>
+      <c r="F2" t="s">
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2070,23 +2632,23 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>1245</v>
+      <c r="F3" t="s">
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2102,23 +2664,23 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>4757</v>
+      <c r="F4" t="s">
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2134,23 +2696,23 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5">
-        <v>7984</v>
+      <c r="F5" t="s">
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2158,31 +2720,31 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>9802</v>
+      <c r="F6" t="s">
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2190,31 +2752,31 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>1418</v>
+      <c r="F7" t="s">
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2222,31 +2784,31 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>2092</v>
+      <c r="F8" t="s">
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2254,31 +2816,31 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9">
-        <v>4722</v>
+      <c r="F9" t="s">
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2286,31 +2848,31 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>4647</v>
+      <c r="F10" t="s">
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2318,31 +2880,31 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>380</v>
+      <c r="F11" t="s">
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2350,31 +2912,31 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
-      <c r="F12">
-        <v>1733</v>
+      <c r="F12" t="s">
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -2382,31 +2944,31 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
-      <c r="F13">
-        <v>3416</v>
+      <c r="F13" t="s">
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -2414,31 +2976,31 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14">
-        <v>9163</v>
+      <c r="F14" t="s">
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2446,31 +3008,31 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>7702</v>
+      <c r="F15" t="s">
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2478,31 +3040,31 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16">
-        <v>8202</v>
+      <c r="F16" t="s">
+        <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2510,31 +3072,31 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
-      <c r="F17">
-        <v>6369</v>
+      <c r="F17" t="s">
+        <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2542,31 +3104,31 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18">
-        <v>2795</v>
+      <c r="F18" t="s">
+        <v>84</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2574,31 +3136,31 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19">
-        <v>3124</v>
+      <c r="F19" t="s">
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>678</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K19" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2606,31 +3168,31 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
-      <c r="F20">
-        <v>7676</v>
+      <c r="F20" t="s">
+        <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K20" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2638,31 +3200,31 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
-      <c r="F21">
-        <v>4672</v>
+      <c r="F21" t="s">
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K21" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2670,31 +3232,31 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22">
-        <v>7023</v>
+      <c r="F22" t="s">
+        <v>101</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2702,31 +3264,31 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
-      <c r="F23">
-        <v>7164</v>
+      <c r="F23" t="s">
+        <v>105</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="H23" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K23" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2734,31 +3296,31 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
-      <c r="F24">
-        <v>8953</v>
+      <c r="F24" t="s">
+        <v>109</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="H24" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K24" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2766,31 +3328,31 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
-      <c r="F25">
-        <v>6654</v>
+      <c r="F25" t="s">
+        <v>113</v>
       </c>
       <c r="G25" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="H25" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K25" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -2801,28 +3363,28 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26">
-        <v>1108</v>
+      <c r="F26" t="s">
+        <v>118</v>
       </c>
       <c r="G26" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="H26" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="K26" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -2833,28 +3395,28 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27">
-        <v>6366</v>
+      <c r="F27" t="s">
+        <v>123</v>
       </c>
       <c r="G27" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="H27" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="I27">
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="K27" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2865,28 +3427,28 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
-      <c r="F28">
-        <v>8391</v>
+      <c r="F28" t="s">
+        <v>127</v>
       </c>
       <c r="G28" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="H28" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="K28" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -2897,28 +3459,28 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
-      <c r="F29">
-        <v>2854</v>
+      <c r="F29" t="s">
+        <v>131</v>
       </c>
       <c r="G29" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="H29" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="K29" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2926,31 +3488,31 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30">
-        <v>7579</v>
+      <c r="F30" t="s">
+        <v>136</v>
       </c>
       <c r="G30" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="H30" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="K30" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2958,31 +3520,31 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
-      <c r="F31">
-        <v>9938</v>
+      <c r="F31" t="s">
+        <v>139</v>
       </c>
       <c r="G31" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="H31" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="K31" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2990,63 +3552,63 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
-      <c r="F32">
-        <v>1332</v>
+      <c r="F32" t="s">
+        <v>143</v>
       </c>
       <c r="G32" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="H32" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="K32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-      <c r="F33">
-        <v>2295</v>
-      </c>
-      <c r="G33" t="s">
-        <v>118</v>
-      </c>
-      <c r="H33" t="s">
-        <v>119</v>
-      </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33" t="s">
-        <v>98</v>
-      </c>
-      <c r="K33" t="s">
-        <v>120</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4</v>
+      </c>
+      <c r="F33" s="4">
+        <v>4896</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -3054,31 +3616,31 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
         <v>121</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>2366</v>
-      </c>
-      <c r="G34" t="s">
-        <v>122</v>
-      </c>
-      <c r="H34" t="s">
-        <v>123</v>
-      </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="J34" t="s">
-        <v>98</v>
-      </c>
       <c r="K34" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -3086,31 +3648,31 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35" t="s">
+        <v>153</v>
+      </c>
+      <c r="H35" t="s">
+        <v>154</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
         <v>121</v>
       </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>8842</v>
-      </c>
-      <c r="G35" t="s">
-        <v>125</v>
-      </c>
-      <c r="H35" t="s">
-        <v>126</v>
-      </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
-      <c r="J35" t="s">
-        <v>98</v>
-      </c>
       <c r="K35" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -3118,31 +3680,31 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>156</v>
+      </c>
+      <c r="G36" t="s">
+        <v>157</v>
+      </c>
+      <c r="H36" t="s">
+        <v>685</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36" t="s">
         <v>121</v>
       </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>4651</v>
-      </c>
-      <c r="G36" t="s">
-        <v>128</v>
-      </c>
-      <c r="H36" t="s">
-        <v>129</v>
-      </c>
-      <c r="I36">
-        <v>2</v>
-      </c>
-      <c r="J36" t="s">
-        <v>98</v>
-      </c>
       <c r="K36" t="s">
-        <v>130</v>
+        <v>686</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -3150,31 +3712,31 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>159</v>
+      </c>
+      <c r="G37" t="s">
+        <v>160</v>
+      </c>
+      <c r="H37" t="s">
+        <v>161</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37" t="s">
         <v>121</v>
       </c>
-      <c r="E37">
-        <v>4</v>
-      </c>
-      <c r="F37">
-        <v>4753</v>
-      </c>
-      <c r="G37" t="s">
-        <v>131</v>
-      </c>
-      <c r="H37" t="s">
-        <v>132</v>
-      </c>
-      <c r="I37">
-        <v>2</v>
-      </c>
-      <c r="J37" t="s">
-        <v>98</v>
-      </c>
       <c r="K37" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -3182,31 +3744,31 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38">
-        <v>5054</v>
+      <c r="F38" t="s">
+        <v>163</v>
       </c>
       <c r="G38" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="H38" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="K38" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -3214,31 +3776,31 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
-      <c r="F39">
-        <v>5103</v>
+      <c r="F39" t="s">
+        <v>166</v>
       </c>
       <c r="G39" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="H39" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="I39">
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="K39" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -3246,31 +3808,31 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40">
-        <v>8656</v>
+      <c r="F40" t="s">
+        <v>170</v>
       </c>
       <c r="G40" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="H40" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="I40">
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="K40" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -3278,31 +3840,31 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
-      <c r="F41">
-        <v>7892</v>
+      <c r="F41" t="s">
+        <v>174</v>
       </c>
       <c r="G41" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="H41" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="I41">
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="K41" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -3310,31 +3872,31 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42">
-        <v>1215</v>
+      <c r="F42" t="s">
+        <v>179</v>
       </c>
       <c r="G42" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="H42" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="I42">
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="K42" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -3342,31 +3904,31 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
-      <c r="F43">
-        <v>6120</v>
+      <c r="F43" t="s">
+        <v>183</v>
       </c>
       <c r="G43" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="H43" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="I43">
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="K43" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -3374,31 +3936,31 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="E44">
         <v>3</v>
       </c>
-      <c r="F44">
-        <v>206</v>
+      <c r="F44" t="s">
+        <v>187</v>
       </c>
       <c r="G44" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="H44" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="I44">
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="K44" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -3406,31 +3968,31 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="E45">
         <v>4</v>
       </c>
-      <c r="F45">
-        <v>1617</v>
+      <c r="F45" t="s">
+        <v>191</v>
       </c>
       <c r="G45" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="H45" t="s">
-        <v>156</v>
+        <v>687</v>
       </c>
       <c r="I45">
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="K45" t="s">
-        <v>157</v>
+        <v>688</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -3438,31 +4000,31 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46">
-        <v>7976</v>
+      <c r="F46" t="s">
+        <v>194</v>
       </c>
       <c r="G46" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="H46" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="I46">
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="K46" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -3470,31 +4032,31 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47">
-        <v>9947</v>
+      <c r="F47" t="s">
+        <v>198</v>
       </c>
       <c r="G47" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="H47" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="I47">
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="K47" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -3502,31 +4064,31 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="E48">
         <v>3</v>
       </c>
-      <c r="F48">
-        <v>5484</v>
+      <c r="F48" t="s">
+        <v>202</v>
       </c>
       <c r="G48" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="H48" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="I48">
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="K48" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3534,95 +4096,97 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="E49">
         <v>4</v>
       </c>
-      <c r="F49">
-        <v>6164</v>
+      <c r="F49" t="s">
+        <v>206</v>
       </c>
       <c r="G49" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="H49" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="I49">
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="K49" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>2253</v>
-      </c>
-      <c r="G50" t="s">
-        <v>171</v>
-      </c>
-      <c r="H50" t="s">
-        <v>172</v>
-      </c>
-      <c r="I50">
-        <v>3</v>
-      </c>
-      <c r="J50" t="s">
-        <v>173</v>
-      </c>
-      <c r="K50" t="s">
-        <v>174</v>
+      <c r="A50" s="3">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4">
+        <v>4085</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="I50" s="3">
+        <v>2</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-      <c r="F51">
-        <v>5619</v>
-      </c>
-      <c r="G51" t="s">
-        <v>175</v>
-      </c>
-      <c r="H51" t="s">
-        <v>176</v>
-      </c>
-      <c r="I51">
-        <v>3</v>
-      </c>
-      <c r="J51" t="s">
-        <v>173</v>
-      </c>
-      <c r="K51" t="s">
-        <v>177</v>
+      <c r="A51" s="3">
+        <v>7</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3">
+        <v>2</v>
+      </c>
+      <c r="F51" s="4">
+        <v>8831</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="I51" s="3">
+        <v>2</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3633,28 +4197,28 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52">
-        <v>7127</v>
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>210</v>
       </c>
       <c r="G52" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="H52" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="I52">
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K52" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -3665,89 +4229,92 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E53">
-        <v>4</v>
-      </c>
-      <c r="F53">
-        <v>8127</v>
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>215</v>
       </c>
       <c r="G53" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="H53" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="I53">
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K53" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>2917</v>
+        <v>3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>219</v>
       </c>
       <c r="G54" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="H54" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="I54">
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K54" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" t="s">
-        <v>184</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-      <c r="F55">
-        <v>9999</v>
-      </c>
-      <c r="G55" t="s">
-        <v>188</v>
-      </c>
-      <c r="H55" t="s">
-        <v>189</v>
-      </c>
-      <c r="I55">
-        <v>3</v>
-      </c>
-      <c r="J55" t="s">
-        <v>173</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>1</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="3">
+        <v>4</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="I55" s="3">
+        <v>3</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -3755,31 +4322,31 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="E56">
-        <v>3</v>
-      </c>
-      <c r="F56">
-        <v>5617</v>
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>228</v>
       </c>
       <c r="G56" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="H56" t="s">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="I56">
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K56" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -3787,92 +4354,95 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="E57">
-        <v>4</v>
-      </c>
-      <c r="F57">
-        <v>9031</v>
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>232</v>
       </c>
       <c r="G57" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="H57" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="I57">
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K57" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>497</v>
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>235</v>
+      </c>
+      <c r="G58" t="s">
+        <v>236</v>
       </c>
       <c r="H58" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="I58">
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K58" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="E59">
-        <v>2</v>
-      </c>
-      <c r="F59">
-        <v>1648</v>
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>415</v>
       </c>
       <c r="G59" t="s">
-        <v>198</v>
+        <v>416</v>
       </c>
       <c r="H59" t="s">
-        <v>199</v>
+        <v>417</v>
       </c>
       <c r="I59">
         <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K59" t="s">
-        <v>200</v>
+        <v>418</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -3880,31 +4450,31 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="E60">
-        <v>3</v>
-      </c>
-      <c r="F60">
-        <v>5709</v>
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>243</v>
       </c>
       <c r="G60" t="s">
-        <v>201</v>
+        <v>676</v>
       </c>
       <c r="H60" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="I60">
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K60" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -3912,95 +4482,95 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="E61">
-        <v>4</v>
-      </c>
-      <c r="F61">
-        <v>7232</v>
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>246</v>
       </c>
       <c r="G61" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="H61" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="I61">
         <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K61" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>158</v>
+        <v>3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>250</v>
       </c>
       <c r="G62" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="H62" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="I62">
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K62" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="E63">
-        <v>2</v>
-      </c>
-      <c r="F63">
-        <v>2327</v>
+        <v>4</v>
+      </c>
+      <c r="F63" t="s">
+        <v>254</v>
       </c>
       <c r="G63" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="H63" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="I63">
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K63" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -4008,31 +4578,31 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E64">
-        <v>3</v>
-      </c>
-      <c r="F64">
-        <v>2675</v>
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>258</v>
       </c>
       <c r="G64" t="s">
+        <v>259</v>
+      </c>
+      <c r="H64" t="s">
+        <v>260</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64" t="s">
         <v>213</v>
       </c>
-      <c r="H64" t="s">
-        <v>214</v>
-      </c>
-      <c r="I64">
-        <v>3</v>
-      </c>
-      <c r="J64" t="s">
-        <v>173</v>
-      </c>
       <c r="K64" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -4040,95 +4610,95 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E65">
-        <v>4</v>
-      </c>
-      <c r="F65">
-        <v>3579</v>
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>262</v>
       </c>
       <c r="G65" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="H65" t="s">
-        <v>62</v>
+        <v>264</v>
       </c>
       <c r="I65">
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K65" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>2414</v>
+        <v>3</v>
+      </c>
+      <c r="F66" t="s">
+        <v>266</v>
       </c>
       <c r="G66" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="H66" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="I66">
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K66" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="E67">
-        <v>2</v>
-      </c>
-      <c r="F67">
-        <v>7725</v>
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>270</v>
       </c>
       <c r="G67" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="H67" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="I67">
         <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K67" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -4136,31 +4706,31 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="E68">
-        <v>3</v>
-      </c>
-      <c r="F68">
-        <v>2913</v>
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>274</v>
       </c>
       <c r="G68" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="H68" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="I68">
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K68" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -4168,95 +4738,95 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="E69">
-        <v>4</v>
-      </c>
-      <c r="F69">
-        <v>6896</v>
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>278</v>
       </c>
       <c r="G69" t="s">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="H69" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="I69">
         <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K69" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>891</v>
+        <v>3</v>
+      </c>
+      <c r="F70" t="s">
+        <v>281</v>
       </c>
       <c r="G70" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="H70" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="I70">
         <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K70" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="E71">
-        <v>2</v>
-      </c>
-      <c r="F71">
-        <v>9208</v>
+        <v>4</v>
+      </c>
+      <c r="F71" t="s">
+        <v>285</v>
       </c>
       <c r="G71" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="H71" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="I71">
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K71" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -4264,31 +4834,31 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="E72">
-        <v>3</v>
-      </c>
-      <c r="F72">
-        <v>2966</v>
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>290</v>
       </c>
       <c r="G72" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="H72" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="I72">
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K72" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -4296,95 +4866,95 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="E73">
-        <v>4</v>
-      </c>
-      <c r="F73">
-        <v>3598</v>
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>294</v>
       </c>
       <c r="G73" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="H73" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="I73">
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K73" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>243</v>
+        <v>99</v>
       </c>
       <c r="C74" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>168</v>
+        <v>3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>298</v>
       </c>
       <c r="G74" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="H74" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="I74">
         <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K74" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="E75">
-        <v>2</v>
-      </c>
-      <c r="F75">
-        <v>2747</v>
+        <v>4</v>
+      </c>
+      <c r="F75" t="s">
+        <v>302</v>
       </c>
       <c r="G75" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="H75" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="I75">
         <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K75" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -4392,31 +4962,31 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="C76" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="E76">
-        <v>3</v>
-      </c>
-      <c r="F76">
-        <v>1619</v>
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>308</v>
       </c>
       <c r="G76" t="s">
-        <v>251</v>
+        <v>309</v>
       </c>
       <c r="H76" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
       <c r="I76">
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K76" t="s">
-        <v>253</v>
+        <v>311</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -4424,95 +4994,95 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="C77" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="E77">
-        <v>4</v>
-      </c>
-      <c r="F77">
-        <v>6562</v>
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>312</v>
       </c>
       <c r="G77" t="s">
-        <v>254</v>
+        <v>313</v>
       </c>
       <c r="H77" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
       <c r="I77">
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K77" t="s">
-        <v>256</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="C78" t="s">
-        <v>218</v>
+        <v>307</v>
       </c>
       <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>6440</v>
+        <v>3</v>
+      </c>
+      <c r="F78" t="s">
+        <v>316</v>
       </c>
       <c r="G78" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="H78" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="K78" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="C79" t="s">
-        <v>218</v>
+        <v>307</v>
       </c>
       <c r="E79">
-        <v>2</v>
-      </c>
-      <c r="F79">
-        <v>7389</v>
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>320</v>
       </c>
       <c r="G79" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="H79" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="K79" t="s">
-        <v>263</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -4523,92 +5093,92 @@
         <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="E80">
-        <v>3</v>
-      </c>
-      <c r="F80">
-        <v>3509</v>
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>324</v>
       </c>
       <c r="G80" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="H80" t="s">
-        <v>97</v>
+        <v>326</v>
       </c>
       <c r="I80">
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="K80" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>273</v>
       </c>
       <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>9187</v>
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>329</v>
       </c>
       <c r="G81" t="s">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="H81" t="s">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="I81">
         <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="K81" t="s">
-        <v>268</v>
+        <v>332</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>273</v>
       </c>
       <c r="E82">
-        <v>2</v>
-      </c>
-      <c r="F82">
-        <v>137</v>
+        <v>3</v>
+      </c>
+      <c r="F82" t="s">
+        <v>333</v>
       </c>
       <c r="G82" t="s">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="H82" t="s">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="I82">
         <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="K82" t="s">
-        <v>271</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -4616,95 +5186,95 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E83">
-        <v>3</v>
-      </c>
-      <c r="F83">
-        <v>9480</v>
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>336</v>
       </c>
       <c r="G83" t="s">
-        <v>272</v>
+        <v>337</v>
       </c>
       <c r="H83" t="s">
-        <v>273</v>
+        <v>338</v>
       </c>
       <c r="I83">
         <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="K83" t="s">
-        <v>274</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C84" t="s">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84">
-        <v>5591</v>
+        <v>2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>340</v>
       </c>
       <c r="G84" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="H84" t="s">
-        <v>277</v>
+        <v>695</v>
       </c>
       <c r="I84">
         <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="K84" t="s">
-        <v>278</v>
+        <v>696</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C85" t="s">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="E85">
-        <v>2</v>
-      </c>
-      <c r="F85">
-        <v>5559</v>
+        <v>3</v>
+      </c>
+      <c r="F85" t="s">
+        <v>343</v>
       </c>
       <c r="G85" t="s">
-        <v>279</v>
+        <v>344</v>
       </c>
       <c r="H85" t="s">
-        <v>280</v>
+        <v>345</v>
       </c>
       <c r="I85">
         <v>4</v>
       </c>
       <c r="J85" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="K85" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -4712,95 +5282,95 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C86" t="s">
-        <v>275</v>
+        <v>347</v>
       </c>
       <c r="E86">
-        <v>3</v>
-      </c>
-      <c r="F86">
-        <v>5642</v>
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>348</v>
       </c>
       <c r="G86" t="s">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="H86" t="s">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="I86">
         <v>4</v>
       </c>
       <c r="J86" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="K86" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>4</v>
-      </c>
-      <c r="B87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C87" t="s">
-        <v>285</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>3907</v>
-      </c>
-      <c r="G87" t="s">
-        <v>286</v>
-      </c>
-      <c r="H87" t="s">
-        <v>287</v>
-      </c>
-      <c r="I87">
-        <v>4</v>
-      </c>
-      <c r="J87" t="s">
-        <v>259</v>
-      </c>
-      <c r="K87" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>4</v>
-      </c>
-      <c r="B88" t="s">
-        <v>54</v>
-      </c>
-      <c r="C88" t="s">
-        <v>285</v>
-      </c>
-      <c r="E88">
-        <v>2</v>
-      </c>
-      <c r="F88">
-        <v>2798</v>
-      </c>
-      <c r="G88" t="s">
-        <v>289</v>
-      </c>
-      <c r="H88" t="s">
-        <v>290</v>
-      </c>
-      <c r="I88">
-        <v>4</v>
-      </c>
-      <c r="J88" t="s">
-        <v>259</v>
-      </c>
-      <c r="K88" t="s">
-        <v>291</v>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>3</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E87" s="3">
+        <v>2</v>
+      </c>
+      <c r="F87" s="4">
+        <v>6525</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="I87" s="3">
+        <v>4</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>3</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E88" s="3">
+        <v>3</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="I88" s="3">
+        <v>4</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -4808,95 +5378,95 @@
         <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C89" t="s">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="E89">
-        <v>3</v>
-      </c>
-      <c r="F89">
-        <v>2777</v>
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>357</v>
       </c>
       <c r="G89" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="H89" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="I89">
         <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="K89" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C90" t="s">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90">
-        <v>4544</v>
+        <v>2</v>
+      </c>
+      <c r="F90" t="s">
+        <v>361</v>
       </c>
       <c r="G90" t="s">
-        <v>295</v>
+        <v>362</v>
       </c>
       <c r="H90" t="s">
-        <v>296</v>
+        <v>363</v>
       </c>
       <c r="I90">
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="K90" t="s">
-        <v>297</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C91" t="s">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="E91">
-        <v>2</v>
-      </c>
-      <c r="F91">
-        <v>7291</v>
+        <v>3</v>
+      </c>
+      <c r="F91" t="s">
+        <v>365</v>
       </c>
       <c r="G91" t="s">
-        <v>298</v>
+        <v>366</v>
       </c>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>367</v>
       </c>
       <c r="I91">
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="K91" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -4904,95 +5474,95 @@
         <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C92" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E92">
-        <v>3</v>
-      </c>
-      <c r="F92">
-        <v>507</v>
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>369</v>
       </c>
       <c r="G92" t="s">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="H92" t="s">
-        <v>301</v>
+        <v>371</v>
       </c>
       <c r="I92">
         <v>4</v>
       </c>
       <c r="J92" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="K92" t="s">
-        <v>302</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C93" t="s">
-        <v>303</v>
+        <v>100</v>
       </c>
       <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>1666</v>
+        <v>2</v>
+      </c>
+      <c r="F93" t="s">
+        <v>373</v>
       </c>
       <c r="G93" t="s">
-        <v>304</v>
+        <v>374</v>
       </c>
       <c r="H93" t="s">
-        <v>305</v>
+        <v>145</v>
       </c>
       <c r="I93">
         <v>4</v>
       </c>
       <c r="J93" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="K93" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C94" t="s">
-        <v>303</v>
+        <v>100</v>
       </c>
       <c r="E94">
-        <v>2</v>
-      </c>
-      <c r="F94">
-        <v>2308</v>
+        <v>3</v>
+      </c>
+      <c r="F94" t="s">
+        <v>376</v>
       </c>
       <c r="G94" t="s">
-        <v>307</v>
+        <v>377</v>
       </c>
       <c r="H94" t="s">
-        <v>308</v>
+        <v>378</v>
       </c>
       <c r="I94">
         <v>4</v>
       </c>
       <c r="J94" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="K94" t="s">
-        <v>309</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -5000,95 +5570,95 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>303</v>
+        <v>380</v>
       </c>
       <c r="E95">
-        <v>3</v>
-      </c>
-      <c r="F95">
-        <v>8528</v>
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>381</v>
       </c>
       <c r="G95" t="s">
-        <v>310</v>
+        <v>382</v>
       </c>
       <c r="H95" t="s">
-        <v>311</v>
+        <v>383</v>
       </c>
       <c r="I95">
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="K95" t="s">
-        <v>312</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>243</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96">
-        <v>4698</v>
+        <v>2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>385</v>
       </c>
       <c r="G96" t="s">
-        <v>314</v>
+        <v>386</v>
       </c>
       <c r="H96" t="s">
-        <v>315</v>
+        <v>387</v>
       </c>
       <c r="I96">
         <v>4</v>
       </c>
       <c r="J96" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="K96" t="s">
-        <v>316</v>
+        <v>388</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>243</v>
+        <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="E97">
-        <v>2</v>
-      </c>
-      <c r="F97">
-        <v>2613</v>
+        <v>3</v>
+      </c>
+      <c r="F97" t="s">
+        <v>389</v>
       </c>
       <c r="G97" t="s">
-        <v>317</v>
+        <v>390</v>
       </c>
       <c r="H97" t="s">
-        <v>169</v>
+        <v>391</v>
       </c>
       <c r="I97">
         <v>4</v>
       </c>
       <c r="J97" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="K97" t="s">
-        <v>318</v>
+        <v>392</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -5096,83 +5666,95 @@
         <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="C98" t="s">
-        <v>313</v>
+        <v>393</v>
       </c>
       <c r="E98">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>394</v>
+      </c>
+      <c r="G98" t="s">
+        <v>395</v>
+      </c>
+      <c r="H98" t="s">
+        <v>396</v>
       </c>
       <c r="I98">
         <v>4</v>
       </c>
       <c r="J98" t="s">
-        <v>259</v>
+        <v>327</v>
+      </c>
+      <c r="K98" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="C99" t="s">
-        <v>319</v>
+        <v>393</v>
       </c>
       <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99">
-        <v>8491</v>
+        <v>2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>398</v>
       </c>
       <c r="G99" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="H99" t="s">
-        <v>321</v>
+        <v>208</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J99" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K99" t="s">
-        <v>323</v>
+        <v>400</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="C100" t="s">
-        <v>319</v>
+        <v>393</v>
       </c>
       <c r="E100">
-        <v>2</v>
-      </c>
-      <c r="F100">
-        <v>9789</v>
+        <v>3</v>
+      </c>
+      <c r="F100" s="2">
+        <v>9911</v>
       </c>
       <c r="G100" t="s">
-        <v>324</v>
+        <v>674</v>
       </c>
       <c r="H100" t="s">
-        <v>325</v>
+        <v>675</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K100" t="s">
-        <v>326</v>
+        <v>677</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -5183,28 +5765,28 @@
         <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>319</v>
+        <v>401</v>
       </c>
       <c r="E101">
-        <v>3</v>
-      </c>
-      <c r="F101">
-        <v>9320</v>
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>402</v>
       </c>
       <c r="G101" t="s">
-        <v>327</v>
+        <v>403</v>
       </c>
       <c r="H101" t="s">
-        <v>328</v>
+        <v>404</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="K101" t="s">
-        <v>329</v>
+        <v>406</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
@@ -5215,92 +5797,92 @@
         <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>319</v>
+        <v>401</v>
       </c>
       <c r="E102">
-        <v>4</v>
-      </c>
-      <c r="F102">
-        <v>726</v>
+        <v>2</v>
+      </c>
+      <c r="F102" t="s">
+        <v>407</v>
       </c>
       <c r="G102" t="s">
-        <v>330</v>
+        <v>408</v>
       </c>
       <c r="H102" t="s">
-        <v>331</v>
+        <v>409</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="K102" t="s">
-        <v>332</v>
+        <v>410</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>401</v>
       </c>
       <c r="E103">
-        <v>1</v>
-      </c>
-      <c r="F103">
-        <v>9751</v>
+        <v>3</v>
+      </c>
+      <c r="F103" t="s">
+        <v>411</v>
       </c>
       <c r="G103" t="s">
-        <v>333</v>
+        <v>412</v>
       </c>
       <c r="H103" t="s">
-        <v>334</v>
+        <v>413</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="K103" t="s">
-        <v>335</v>
+        <v>414</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>401</v>
       </c>
       <c r="E104">
-        <v>2</v>
-      </c>
-      <c r="F104">
-        <v>8565</v>
+        <v>4</v>
+      </c>
+      <c r="F104" t="s">
+        <v>238</v>
       </c>
       <c r="G104" t="s">
-        <v>336</v>
+        <v>239</v>
       </c>
       <c r="H104" t="s">
-        <v>337</v>
+        <v>240</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="K104" t="s">
-        <v>338</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -5308,31 +5890,31 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E105">
-        <v>3</v>
-      </c>
-      <c r="F105">
-        <v>5230</v>
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>419</v>
       </c>
       <c r="G105" t="s">
-        <v>339</v>
+        <v>420</v>
       </c>
       <c r="H105" t="s">
-        <v>340</v>
+        <v>421</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="K105" t="s">
-        <v>341</v>
+        <v>422</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
@@ -5340,95 +5922,95 @@
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E106">
-        <v>4</v>
-      </c>
-      <c r="F106">
-        <v>9225</v>
+        <v>2</v>
+      </c>
+      <c r="F106" t="s">
+        <v>423</v>
       </c>
       <c r="G106" t="s">
-        <v>342</v>
+        <v>424</v>
       </c>
       <c r="H106" t="s">
-        <v>343</v>
+        <v>425</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="K106" t="s">
-        <v>344</v>
+        <v>426</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C107" t="s">
-        <v>345</v>
+        <v>31</v>
       </c>
       <c r="E107">
-        <v>1</v>
-      </c>
-      <c r="F107">
-        <v>9057</v>
+        <v>3</v>
+      </c>
+      <c r="F107" t="s">
+        <v>427</v>
       </c>
       <c r="G107" t="s">
-        <v>346</v>
+        <v>428</v>
       </c>
       <c r="H107" t="s">
-        <v>347</v>
+        <v>429</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="K107" t="s">
-        <v>348</v>
+        <v>430</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C108" t="s">
-        <v>345</v>
+        <v>31</v>
       </c>
       <c r="E108">
-        <v>2</v>
-      </c>
-      <c r="F108">
-        <v>9371</v>
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>431</v>
       </c>
       <c r="G108" t="s">
-        <v>349</v>
+        <v>432</v>
       </c>
       <c r="H108" t="s">
-        <v>166</v>
+        <v>433</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="K108" t="s">
-        <v>350</v>
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
@@ -5436,31 +6018,31 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C109" t="s">
-        <v>345</v>
+        <v>435</v>
       </c>
       <c r="E109">
-        <v>3</v>
-      </c>
-      <c r="F109">
-        <v>344</v>
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
+        <v>436</v>
       </c>
       <c r="G109" t="s">
-        <v>351</v>
+        <v>437</v>
       </c>
       <c r="H109" t="s">
-        <v>352</v>
+        <v>438</v>
       </c>
       <c r="I109">
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="K109" t="s">
-        <v>353</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
@@ -5468,95 +6050,95 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C110" t="s">
-        <v>345</v>
+        <v>435</v>
       </c>
       <c r="E110">
-        <v>4</v>
-      </c>
-      <c r="F110">
-        <v>5220</v>
+        <v>2</v>
+      </c>
+      <c r="F110" t="s">
+        <v>440</v>
       </c>
       <c r="G110" t="s">
-        <v>354</v>
+        <v>441</v>
       </c>
       <c r="H110" t="s">
-        <v>355</v>
+        <v>204</v>
       </c>
       <c r="I110">
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="K110" t="s">
-        <v>356</v>
+        <v>442</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C111" t="s">
-        <v>357</v>
+        <v>435</v>
       </c>
       <c r="E111">
-        <v>1</v>
-      </c>
-      <c r="F111">
-        <v>1697</v>
+        <v>3</v>
+      </c>
+      <c r="F111" t="s">
+        <v>622</v>
       </c>
       <c r="G111" t="s">
-        <v>358</v>
+        <v>623</v>
       </c>
       <c r="H111" t="s">
-        <v>359</v>
+        <v>624</v>
       </c>
       <c r="I111">
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="K111" t="s">
-        <v>360</v>
+        <v>625</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C112" t="s">
-        <v>357</v>
+        <v>435</v>
       </c>
       <c r="E112">
-        <v>2</v>
-      </c>
-      <c r="F112">
-        <v>8251</v>
+        <v>4</v>
+      </c>
+      <c r="F112" t="s">
+        <v>443</v>
       </c>
       <c r="G112" t="s">
-        <v>361</v>
+        <v>444</v>
       </c>
       <c r="H112" t="s">
-        <v>362</v>
+        <v>445</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="K112" t="s">
-        <v>363</v>
+        <v>446</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
@@ -5564,31 +6146,31 @@
         <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C113" t="s">
-        <v>357</v>
+        <v>447</v>
       </c>
       <c r="E113">
-        <v>3</v>
-      </c>
-      <c r="F113">
-        <v>1222</v>
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>448</v>
       </c>
       <c r="G113" t="s">
-        <v>364</v>
+        <v>449</v>
       </c>
       <c r="H113" t="s">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="I113">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="K113" t="s">
-        <v>366</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
@@ -5596,95 +6178,95 @@
         <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C114" t="s">
-        <v>357</v>
+        <v>447</v>
       </c>
       <c r="E114">
-        <v>4</v>
-      </c>
-      <c r="F114">
-        <v>3231</v>
+        <v>2</v>
+      </c>
+      <c r="F114" t="s">
+        <v>452</v>
       </c>
       <c r="G114" t="s">
-        <v>367</v>
+        <v>453</v>
       </c>
       <c r="H114" t="s">
-        <v>228</v>
+        <v>699</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="K114" t="s">
-        <v>368</v>
+        <v>700</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C115" t="s">
-        <v>369</v>
+        <v>447</v>
       </c>
       <c r="E115">
-        <v>1</v>
-      </c>
-      <c r="F115">
-        <v>3247</v>
+        <v>3</v>
+      </c>
+      <c r="F115" t="s">
+        <v>454</v>
       </c>
       <c r="G115" t="s">
-        <v>370</v>
+        <v>455</v>
       </c>
       <c r="H115" t="s">
-        <v>46</v>
+        <v>456</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="K115" t="s">
-        <v>371</v>
+        <v>457</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C116" t="s">
-        <v>369</v>
+        <v>447</v>
       </c>
       <c r="E116">
-        <v>2</v>
-      </c>
-      <c r="F116">
-        <v>3403</v>
+        <v>4</v>
+      </c>
+      <c r="F116" t="s">
+        <v>458</v>
       </c>
       <c r="G116" t="s">
-        <v>372</v>
+        <v>459</v>
       </c>
       <c r="H116" t="s">
-        <v>373</v>
+        <v>679</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="K116" t="s">
-        <v>374</v>
+        <v>460</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
@@ -5692,31 +6274,31 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C117" t="s">
-        <v>369</v>
+        <v>461</v>
       </c>
       <c r="E117">
-        <v>3</v>
-      </c>
-      <c r="F117">
-        <v>3487</v>
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>462</v>
       </c>
       <c r="G117" t="s">
-        <v>375</v>
+        <v>463</v>
       </c>
       <c r="H117" t="s">
-        <v>225</v>
+        <v>55</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="K117" t="s">
-        <v>376</v>
+        <v>464</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
@@ -5724,127 +6306,127 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C118" t="s">
-        <v>369</v>
+        <v>461</v>
       </c>
       <c r="E118">
-        <v>4</v>
-      </c>
-      <c r="F118">
-        <v>8669</v>
+        <v>2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>465</v>
       </c>
       <c r="G118" t="s">
-        <v>377</v>
+        <v>466</v>
       </c>
       <c r="H118" t="s">
-        <v>378</v>
+        <v>467</v>
       </c>
       <c r="I118">
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="K118" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C119" t="s">
-        <v>380</v>
+        <v>461</v>
       </c>
       <c r="E119">
-        <v>1</v>
-      </c>
-      <c r="F119">
-        <v>3439</v>
+        <v>3</v>
+      </c>
+      <c r="F119" t="s">
+        <v>469</v>
       </c>
       <c r="G119" t="s">
-        <v>381</v>
+        <v>470</v>
       </c>
       <c r="H119" t="s">
-        <v>382</v>
+        <v>283</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="K119" t="s">
-        <v>382</v>
+        <v>471</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>82</v>
+      </c>
+      <c r="C120" t="s">
+        <v>461</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+      <c r="F120" t="s">
+        <v>472</v>
+      </c>
+      <c r="G120" t="s">
+        <v>473</v>
+      </c>
+      <c r="H120" t="s">
+        <v>474</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>405</v>
+      </c>
+      <c r="K120" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
         <v>6</v>
       </c>
-      <c r="B120" t="s">
-        <v>81</v>
-      </c>
-      <c r="C120" t="s">
-        <v>380</v>
-      </c>
-      <c r="E120">
-        <v>2</v>
-      </c>
-      <c r="F120">
-        <v>5961</v>
-      </c>
-      <c r="G120" t="s">
-        <v>383</v>
-      </c>
-      <c r="H120" t="s">
-        <v>211</v>
-      </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
-      <c r="J120" t="s">
-        <v>322</v>
-      </c>
-      <c r="K120" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>6</v>
-      </c>
-      <c r="B121" t="s">
-        <v>81</v>
-      </c>
-      <c r="C121" t="s">
-        <v>380</v>
-      </c>
-      <c r="E121">
-        <v>3</v>
-      </c>
-      <c r="F121">
-        <v>3538</v>
-      </c>
-      <c r="G121" t="s">
-        <v>385</v>
-      </c>
-      <c r="H121" t="s">
-        <v>163</v>
-      </c>
-      <c r="I121">
-        <v>1</v>
-      </c>
-      <c r="J121" t="s">
-        <v>322</v>
-      </c>
-      <c r="K121" t="s">
-        <v>386</v>
+      <c r="B121" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I121" s="3">
+        <v>1</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
@@ -5852,95 +6434,95 @@
         <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>81</v>
-      </c>
-      <c r="C122" t="s">
-        <v>380</v>
+        <v>99</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>710</v>
       </c>
       <c r="E122">
-        <v>4</v>
-      </c>
-      <c r="F122">
-        <v>4126</v>
+        <v>2</v>
+      </c>
+      <c r="F122" t="s">
+        <v>479</v>
       </c>
       <c r="G122" t="s">
-        <v>387</v>
+        <v>480</v>
       </c>
       <c r="H122" t="s">
-        <v>388</v>
+        <v>264</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="K122" t="s">
-        <v>389</v>
+        <v>481</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" t="s">
-        <v>390</v>
+        <v>99</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>710</v>
       </c>
       <c r="E123">
-        <v>1</v>
-      </c>
-      <c r="F123">
-        <v>4393</v>
+        <v>3</v>
+      </c>
+      <c r="F123" t="s">
+        <v>482</v>
       </c>
       <c r="G123" t="s">
-        <v>391</v>
+        <v>483</v>
       </c>
       <c r="H123" t="s">
-        <v>392</v>
+        <v>200</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="K123" t="s">
-        <v>394</v>
+        <v>484</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" t="s">
-        <v>390</v>
+        <v>99</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>710</v>
       </c>
       <c r="E124">
-        <v>2</v>
-      </c>
-      <c r="F124">
-        <v>4530</v>
+        <v>4</v>
+      </c>
+      <c r="F124" t="s">
+        <v>485</v>
       </c>
       <c r="G124" t="s">
-        <v>395</v>
+        <v>486</v>
       </c>
       <c r="H124" t="s">
-        <v>396</v>
+        <v>487</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="K124" t="s">
-        <v>397</v>
+        <v>488</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
@@ -5951,28 +6533,28 @@
         <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>390</v>
+        <v>489</v>
       </c>
       <c r="E125">
-        <v>3</v>
-      </c>
-      <c r="F125">
-        <v>6716</v>
+        <v>1</v>
+      </c>
+      <c r="F125" t="s">
+        <v>490</v>
       </c>
       <c r="G125" t="s">
-        <v>398</v>
+        <v>491</v>
       </c>
       <c r="H125" t="s">
-        <v>399</v>
+        <v>492</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K125" t="s">
-        <v>400</v>
+        <v>494</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
@@ -5983,92 +6565,92 @@
         <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>390</v>
+        <v>489</v>
       </c>
       <c r="E126">
-        <v>4</v>
-      </c>
-      <c r="F126">
-        <v>5620</v>
+        <v>2</v>
+      </c>
+      <c r="F126" t="s">
+        <v>495</v>
       </c>
       <c r="G126" t="s">
-        <v>401</v>
+        <v>496</v>
       </c>
       <c r="H126" t="s">
-        <v>402</v>
+        <v>497</v>
       </c>
       <c r="I126">
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K126" t="s">
-        <v>403</v>
+        <v>498</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>404</v>
+        <v>489</v>
       </c>
       <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="F127">
-        <v>2633</v>
+        <v>3</v>
+      </c>
+      <c r="F127" t="s">
+        <v>499</v>
       </c>
       <c r="G127" t="s">
-        <v>405</v>
+        <v>500</v>
       </c>
       <c r="H127" t="s">
-        <v>406</v>
+        <v>501</v>
       </c>
       <c r="I127">
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K127" t="s">
-        <v>407</v>
+        <v>502</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B128" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>404</v>
+        <v>489</v>
       </c>
       <c r="E128">
-        <v>2</v>
-      </c>
-      <c r="F128">
-        <v>5206</v>
+        <v>4</v>
+      </c>
+      <c r="F128" t="s">
+        <v>503</v>
       </c>
       <c r="G128" t="s">
-        <v>408</v>
+        <v>504</v>
       </c>
       <c r="H128" t="s">
-        <v>409</v>
+        <v>505</v>
       </c>
       <c r="I128">
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K128" t="s">
-        <v>410</v>
+        <v>506</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -6076,31 +6658,31 @@
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C129" t="s">
-        <v>404</v>
+        <v>507</v>
       </c>
       <c r="E129">
-        <v>3</v>
-      </c>
-      <c r="F129">
-        <v>6992</v>
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>508</v>
       </c>
       <c r="G129" t="s">
-        <v>411</v>
+        <v>509</v>
       </c>
       <c r="H129" t="s">
-        <v>412</v>
+        <v>510</v>
       </c>
       <c r="I129">
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K129" t="s">
-        <v>413</v>
+        <v>511</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -6108,95 +6690,95 @@
         <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C130" t="s">
-        <v>404</v>
+        <v>507</v>
       </c>
       <c r="E130">
-        <v>4</v>
-      </c>
-      <c r="F130">
-        <v>8430</v>
+        <v>2</v>
+      </c>
+      <c r="F130" t="s">
+        <v>512</v>
       </c>
       <c r="G130" t="s">
-        <v>414</v>
+        <v>513</v>
       </c>
       <c r="H130" t="s">
-        <v>415</v>
+        <v>514</v>
       </c>
       <c r="I130">
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K130" t="s">
-        <v>416</v>
+        <v>515</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C131" t="s">
-        <v>417</v>
+        <v>507</v>
       </c>
       <c r="E131">
-        <v>1</v>
-      </c>
-      <c r="F131">
-        <v>4065</v>
+        <v>3</v>
+      </c>
+      <c r="F131" t="s">
+        <v>516</v>
       </c>
       <c r="G131" t="s">
-        <v>418</v>
+        <v>517</v>
       </c>
       <c r="H131" t="s">
-        <v>419</v>
+        <v>518</v>
       </c>
       <c r="I131">
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K131" t="s">
-        <v>420</v>
+        <v>519</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C132" t="s">
-        <v>417</v>
+        <v>507</v>
       </c>
       <c r="E132">
-        <v>2</v>
-      </c>
-      <c r="F132">
-        <v>5844</v>
+        <v>4</v>
+      </c>
+      <c r="F132" t="s">
+        <v>520</v>
       </c>
       <c r="G132" t="s">
-        <v>421</v>
+        <v>521</v>
       </c>
       <c r="H132" t="s">
-        <v>270</v>
+        <v>522</v>
       </c>
       <c r="I132">
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K132" t="s">
-        <v>422</v>
+        <v>523</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -6204,31 +6786,31 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C133" t="s">
-        <v>417</v>
+        <v>524</v>
       </c>
       <c r="E133">
-        <v>3</v>
-      </c>
-      <c r="F133">
-        <v>6488</v>
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
+        <v>525</v>
       </c>
       <c r="G133" t="s">
-        <v>423</v>
+        <v>526</v>
       </c>
       <c r="H133" t="s">
-        <v>334</v>
+        <v>680</v>
       </c>
       <c r="I133">
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K133" t="s">
-        <v>424</v>
+        <v>527</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -6236,95 +6818,95 @@
         <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C134" t="s">
-        <v>417</v>
+        <v>524</v>
       </c>
       <c r="E134">
-        <v>4</v>
-      </c>
-      <c r="F134">
-        <v>7645</v>
+        <v>2</v>
+      </c>
+      <c r="F134" t="s">
+        <v>528</v>
       </c>
       <c r="G134" t="s">
-        <v>425</v>
+        <v>529</v>
       </c>
       <c r="H134" t="s">
-        <v>129</v>
+        <v>342</v>
       </c>
       <c r="I134">
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K134" t="s">
-        <v>426</v>
+        <v>530</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B135" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C135" t="s">
-        <v>427</v>
+        <v>524</v>
       </c>
       <c r="E135">
-        <v>1</v>
-      </c>
-      <c r="F135">
-        <v>1850</v>
+        <v>3</v>
+      </c>
+      <c r="F135" t="s">
+        <v>531</v>
       </c>
       <c r="G135" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
       <c r="H135" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I135">
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K135" t="s">
-        <v>430</v>
+        <v>533</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B136" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C136" t="s">
-        <v>427</v>
+        <v>524</v>
       </c>
       <c r="E136">
-        <v>2</v>
-      </c>
-      <c r="F136">
-        <v>7196</v>
+        <v>4</v>
+      </c>
+      <c r="F136" t="s">
+        <v>534</v>
       </c>
       <c r="G136" t="s">
-        <v>431</v>
+        <v>535</v>
       </c>
       <c r="H136" t="s">
-        <v>432</v>
+        <v>158</v>
       </c>
       <c r="I136">
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K136" t="s">
-        <v>433</v>
+        <v>536</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -6332,31 +6914,31 @@
         <v>4</v>
       </c>
       <c r="B137" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C137" t="s">
-        <v>427</v>
+        <v>537</v>
       </c>
       <c r="E137">
-        <v>3</v>
-      </c>
-      <c r="F137">
-        <v>9015</v>
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>538</v>
       </c>
       <c r="G137" t="s">
-        <v>434</v>
+        <v>539</v>
       </c>
       <c r="H137" t="s">
-        <v>435</v>
+        <v>540</v>
       </c>
       <c r="I137">
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K137" t="s">
-        <v>436</v>
+        <v>541</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -6364,95 +6946,95 @@
         <v>4</v>
       </c>
       <c r="B138" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C138" t="s">
-        <v>427</v>
+        <v>537</v>
       </c>
       <c r="E138">
-        <v>4</v>
-      </c>
-      <c r="F138">
-        <v>6644</v>
+        <v>2</v>
+      </c>
+      <c r="F138" t="s">
+        <v>542</v>
       </c>
       <c r="G138" t="s">
-        <v>437</v>
+        <v>543</v>
       </c>
       <c r="H138" t="s">
-        <v>277</v>
+        <v>544</v>
       </c>
       <c r="I138">
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K138" t="s">
-        <v>438</v>
+        <v>545</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B139" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C139" t="s">
-        <v>439</v>
+        <v>537</v>
       </c>
       <c r="E139">
-        <v>1</v>
-      </c>
-      <c r="F139">
-        <v>747</v>
+        <v>3</v>
+      </c>
+      <c r="F139" t="s">
+        <v>546</v>
       </c>
       <c r="G139" t="s">
-        <v>440</v>
+        <v>547</v>
       </c>
       <c r="H139" t="s">
-        <v>441</v>
+        <v>702</v>
       </c>
       <c r="I139">
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K139" t="s">
-        <v>442</v>
+        <v>701</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B140" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C140" t="s">
-        <v>439</v>
+        <v>537</v>
       </c>
       <c r="E140">
-        <v>2</v>
-      </c>
-      <c r="F140">
-        <v>2394</v>
+        <v>4</v>
+      </c>
+      <c r="F140" t="s">
+        <v>548</v>
       </c>
       <c r="G140" t="s">
-        <v>443</v>
+        <v>549</v>
       </c>
       <c r="H140" t="s">
-        <v>444</v>
+        <v>350</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K140" t="s">
-        <v>445</v>
+        <v>550</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -6460,31 +7042,31 @@
         <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C141" t="s">
-        <v>439</v>
+        <v>551</v>
       </c>
       <c r="E141">
-        <v>3</v>
-      </c>
-      <c r="F141">
-        <v>7832</v>
+        <v>1</v>
+      </c>
+      <c r="F141" t="s">
+        <v>552</v>
       </c>
       <c r="G141" t="s">
-        <v>446</v>
+        <v>553</v>
       </c>
       <c r="H141" t="s">
-        <v>447</v>
+        <v>554</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K141" t="s">
-        <v>448</v>
+        <v>555</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -6492,95 +7074,95 @@
         <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C142" t="s">
-        <v>439</v>
+        <v>551</v>
       </c>
       <c r="E142">
-        <v>4</v>
-      </c>
-      <c r="F142">
-        <v>9895</v>
+        <v>2</v>
+      </c>
+      <c r="F142" t="s">
+        <v>556</v>
       </c>
       <c r="G142" t="s">
-        <v>449</v>
+        <v>557</v>
       </c>
       <c r="H142" t="s">
-        <v>450</v>
+        <v>558</v>
       </c>
       <c r="I142">
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K142" t="s">
-        <v>451</v>
+        <v>559</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C143" t="s">
-        <v>452</v>
+        <v>551</v>
       </c>
       <c r="E143">
-        <v>1</v>
-      </c>
-      <c r="F143">
-        <v>9299</v>
+        <v>3</v>
+      </c>
+      <c r="F143" t="s">
+        <v>560</v>
       </c>
       <c r="G143" t="s">
-        <v>453</v>
+        <v>561</v>
       </c>
       <c r="H143" t="s">
-        <v>182</v>
+        <v>562</v>
       </c>
       <c r="I143">
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K143" t="s">
-        <v>454</v>
+        <v>563</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C144" t="s">
-        <v>452</v>
+        <v>551</v>
       </c>
       <c r="E144">
-        <v>2</v>
-      </c>
-      <c r="F144">
-        <v>3447</v>
+        <v>4</v>
+      </c>
+      <c r="F144" t="s">
+        <v>564</v>
       </c>
       <c r="G144" t="s">
-        <v>455</v>
+        <v>565</v>
       </c>
       <c r="H144" t="s">
-        <v>456</v>
+        <v>566</v>
       </c>
       <c r="I144">
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K144" t="s">
-        <v>457</v>
+        <v>567</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -6588,31 +7170,31 @@
         <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C145" t="s">
-        <v>452</v>
+        <v>568</v>
       </c>
       <c r="E145">
-        <v>3</v>
-      </c>
-      <c r="F145">
-        <v>2786</v>
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>569</v>
       </c>
       <c r="G145" t="s">
-        <v>458</v>
+        <v>570</v>
       </c>
       <c r="H145" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="I145">
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K145" t="s">
-        <v>459</v>
+        <v>571</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -6620,95 +7202,95 @@
         <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C146" t="s">
-        <v>452</v>
+        <v>568</v>
       </c>
       <c r="E146">
-        <v>4</v>
-      </c>
-      <c r="F146">
-        <v>8944</v>
+        <v>2</v>
+      </c>
+      <c r="F146" t="s">
+        <v>572</v>
       </c>
       <c r="G146" t="s">
-        <v>460</v>
+        <v>573</v>
       </c>
       <c r="H146" t="s">
-        <v>461</v>
+        <v>574</v>
       </c>
       <c r="I146">
         <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K146" t="s">
-        <v>462</v>
+        <v>575</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="C147" t="s">
-        <v>463</v>
+        <v>568</v>
       </c>
       <c r="E147">
-        <v>1</v>
-      </c>
-      <c r="F147">
-        <v>4241</v>
+        <v>3</v>
+      </c>
+      <c r="F147" t="s">
+        <v>576</v>
       </c>
       <c r="G147" t="s">
-        <v>464</v>
+        <v>577</v>
       </c>
       <c r="H147" t="s">
-        <v>465</v>
+        <v>59</v>
       </c>
       <c r="I147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="K147" t="s">
-        <v>467</v>
+        <v>578</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="C148" t="s">
-        <v>463</v>
+        <v>568</v>
       </c>
       <c r="E148">
-        <v>2</v>
-      </c>
-      <c r="F148">
-        <v>5956</v>
+        <v>4</v>
+      </c>
+      <c r="F148" t="s">
+        <v>579</v>
       </c>
       <c r="G148" t="s">
-        <v>468</v>
+        <v>580</v>
       </c>
       <c r="H148" t="s">
-        <v>469</v>
+        <v>681</v>
       </c>
       <c r="I148">
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="K148" t="s">
-        <v>470</v>
+        <v>581</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -6719,28 +7301,28 @@
         <v>11</v>
       </c>
       <c r="C149" t="s">
-        <v>463</v>
+        <v>582</v>
       </c>
       <c r="E149">
-        <v>3</v>
-      </c>
-      <c r="F149">
-        <v>7696</v>
+        <v>1</v>
+      </c>
+      <c r="F149" t="s">
+        <v>476</v>
       </c>
       <c r="G149" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="H149" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J149" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K149" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -6751,92 +7333,92 @@
         <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>463</v>
+        <v>582</v>
       </c>
       <c r="E150">
-        <v>4</v>
-      </c>
-      <c r="F150">
-        <v>8088</v>
+        <v>2</v>
+      </c>
+      <c r="F150" t="s">
+        <v>588</v>
       </c>
       <c r="G150" t="s">
-        <v>474</v>
+        <v>589</v>
       </c>
       <c r="H150" t="s">
-        <v>475</v>
+        <v>590</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J150" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K150" t="s">
-        <v>476</v>
+        <v>591</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B151" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="E151">
-        <v>1</v>
-      </c>
-      <c r="F151">
-        <v>2579</v>
+        <v>3</v>
+      </c>
+      <c r="F151" t="s">
+        <v>592</v>
       </c>
       <c r="G151" t="s">
-        <v>477</v>
+        <v>593</v>
       </c>
       <c r="H151" t="s">
-        <v>478</v>
+        <v>594</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K151" t="s">
-        <v>479</v>
+        <v>595</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="E152">
-        <v>2</v>
-      </c>
-      <c r="F152">
-        <v>7954</v>
+        <v>4</v>
+      </c>
+      <c r="F152" t="s">
+        <v>596</v>
       </c>
       <c r="G152" t="s">
-        <v>480</v>
+        <v>597</v>
       </c>
       <c r="H152" t="s">
-        <v>481</v>
+        <v>703</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K152" t="s">
-        <v>482</v>
+        <v>704</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
@@ -6844,31 +7426,31 @@
         <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C153" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E153">
-        <v>3</v>
-      </c>
-      <c r="F153">
-        <v>9892</v>
+        <v>1</v>
+      </c>
+      <c r="F153" t="s">
+        <v>598</v>
       </c>
       <c r="G153" t="s">
-        <v>483</v>
+        <v>599</v>
       </c>
       <c r="H153" t="s">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J153" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K153" t="s">
-        <v>484</v>
+        <v>601</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -6876,95 +7458,95 @@
         <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C154" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E154">
-        <v>4</v>
-      </c>
-      <c r="F154">
-        <v>2074</v>
+        <v>2</v>
+      </c>
+      <c r="F154" t="s">
+        <v>602</v>
       </c>
       <c r="G154" t="s">
-        <v>485</v>
+        <v>603</v>
       </c>
       <c r="H154" t="s">
-        <v>486</v>
+        <v>604</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J154" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K154" t="s">
-        <v>487</v>
+        <v>605</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C155" t="s">
-        <v>488</v>
+        <v>100</v>
       </c>
       <c r="E155">
-        <v>1</v>
-      </c>
-      <c r="F155">
-        <v>3724</v>
+        <v>3</v>
+      </c>
+      <c r="F155" t="s">
+        <v>606</v>
       </c>
       <c r="G155" t="s">
-        <v>489</v>
+        <v>607</v>
       </c>
       <c r="H155" t="s">
-        <v>490</v>
+        <v>566</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K155" t="s">
-        <v>491</v>
+        <v>608</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B156" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C156" t="s">
-        <v>488</v>
+        <v>100</v>
       </c>
       <c r="E156">
-        <v>2</v>
-      </c>
-      <c r="F156">
-        <v>7170</v>
+        <v>4</v>
+      </c>
+      <c r="F156" t="s">
+        <v>609</v>
       </c>
       <c r="G156" t="s">
-        <v>492</v>
+        <v>610</v>
       </c>
       <c r="H156" t="s">
-        <v>493</v>
+        <v>611</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J156" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K156" t="s">
-        <v>494</v>
+        <v>612</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
@@ -6972,31 +7554,31 @@
         <v>3</v>
       </c>
       <c r="B157" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C157" t="s">
-        <v>488</v>
+        <v>613</v>
       </c>
       <c r="E157">
-        <v>3</v>
-      </c>
-      <c r="F157">
-        <v>5611</v>
+        <v>1</v>
+      </c>
+      <c r="F157" t="s">
+        <v>614</v>
       </c>
       <c r="G157" t="s">
-        <v>495</v>
+        <v>615</v>
       </c>
       <c r="H157" t="s">
-        <v>496</v>
+        <v>616</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J157" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K157" t="s">
-        <v>497</v>
+        <v>617</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
@@ -7004,95 +7586,95 @@
         <v>3</v>
       </c>
       <c r="B158" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C158" t="s">
-        <v>488</v>
+        <v>613</v>
       </c>
       <c r="E158">
-        <v>4</v>
-      </c>
-      <c r="F158">
-        <v>5136</v>
+        <v>2</v>
+      </c>
+      <c r="F158" t="s">
+        <v>618</v>
       </c>
       <c r="G158" t="s">
-        <v>498</v>
+        <v>619</v>
       </c>
       <c r="H158" t="s">
-        <v>123</v>
+        <v>620</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J158" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K158" t="s">
-        <v>499</v>
+        <v>621</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B159" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>613</v>
       </c>
       <c r="E159">
-        <v>1</v>
-      </c>
-      <c r="F159">
-        <v>9040</v>
+        <v>3</v>
+      </c>
+      <c r="F159" t="s">
+        <v>626</v>
       </c>
       <c r="G159" t="s">
-        <v>500</v>
+        <v>627</v>
       </c>
       <c r="H159" t="s">
-        <v>501</v>
+        <v>150</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J159" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K159" t="s">
-        <v>502</v>
+        <v>628</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B160" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>613</v>
       </c>
       <c r="E160">
-        <v>2</v>
-      </c>
-      <c r="F160">
-        <v>5587</v>
+        <v>4</v>
+      </c>
+      <c r="F160" t="s">
+        <v>223</v>
       </c>
       <c r="G160" t="s">
-        <v>503</v>
+        <v>224</v>
       </c>
       <c r="H160" t="s">
-        <v>504</v>
+        <v>225</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J160" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K160" t="s">
-        <v>505</v>
+        <v>226</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
@@ -7100,31 +7682,31 @@
         <v>4</v>
       </c>
       <c r="B161" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E161">
-        <v>3</v>
-      </c>
-      <c r="F161">
-        <v>9184</v>
+        <v>1</v>
+      </c>
+      <c r="F161" t="s">
+        <v>629</v>
       </c>
       <c r="G161" t="s">
-        <v>506</v>
+        <v>630</v>
       </c>
       <c r="H161" t="s">
-        <v>79</v>
+        <v>631</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J161" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K161" t="s">
-        <v>507</v>
+        <v>632</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
@@ -7132,95 +7714,95 @@
         <v>4</v>
       </c>
       <c r="B162" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E162">
-        <v>4</v>
-      </c>
-      <c r="F162">
-        <v>4948</v>
+        <v>2</v>
+      </c>
+      <c r="F162" t="s">
+        <v>633</v>
       </c>
       <c r="G162" t="s">
-        <v>508</v>
+        <v>634</v>
       </c>
       <c r="H162" t="s">
-        <v>509</v>
+        <v>635</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K162" t="s">
-        <v>510</v>
+        <v>636</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B163" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C163" t="s">
-        <v>511</v>
+        <v>31</v>
       </c>
       <c r="E163">
-        <v>1</v>
-      </c>
-      <c r="F163">
-        <v>5621</v>
+        <v>3</v>
+      </c>
+      <c r="F163" t="s">
+        <v>637</v>
       </c>
       <c r="G163" t="s">
-        <v>512</v>
+        <v>638</v>
       </c>
       <c r="H163" t="s">
-        <v>513</v>
+        <v>97</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J163" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K163" t="s">
-        <v>514</v>
+        <v>639</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B164" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C164" t="s">
-        <v>511</v>
+        <v>31</v>
       </c>
       <c r="E164">
-        <v>2</v>
-      </c>
-      <c r="F164">
-        <v>4356</v>
+        <v>4</v>
+      </c>
+      <c r="F164" t="s">
+        <v>640</v>
       </c>
       <c r="G164" t="s">
-        <v>515</v>
+        <v>641</v>
       </c>
       <c r="H164" t="s">
-        <v>516</v>
+        <v>642</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K164" t="s">
-        <v>517</v>
+        <v>643</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
@@ -7228,31 +7810,31 @@
         <v>5</v>
       </c>
       <c r="B165" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C165" t="s">
-        <v>511</v>
+        <v>644</v>
       </c>
       <c r="E165">
-        <v>3</v>
-      </c>
-      <c r="F165">
-        <v>3225</v>
+        <v>1</v>
+      </c>
+      <c r="F165" t="s">
+        <v>645</v>
       </c>
       <c r="G165" t="s">
-        <v>518</v>
+        <v>646</v>
       </c>
       <c r="H165" t="s">
-        <v>258</v>
+        <v>647</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J165" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K165" t="s">
-        <v>519</v>
+        <v>648</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
@@ -7260,95 +7842,95 @@
         <v>5</v>
       </c>
       <c r="B166" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C166" t="s">
-        <v>511</v>
+        <v>644</v>
       </c>
       <c r="E166">
-        <v>4</v>
-      </c>
-      <c r="F166">
-        <v>8124</v>
+        <v>2</v>
+      </c>
+      <c r="F166" t="s">
+        <v>649</v>
       </c>
       <c r="G166" t="s">
-        <v>520</v>
+        <v>650</v>
       </c>
       <c r="H166" t="s">
-        <v>521</v>
+        <v>651</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J166" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K166" t="s">
-        <v>522</v>
+        <v>652</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B167" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C167" t="s">
-        <v>523</v>
+        <v>644</v>
       </c>
       <c r="E167">
-        <v>1</v>
-      </c>
-      <c r="F167">
-        <v>6967</v>
+        <v>3</v>
+      </c>
+      <c r="F167" t="s">
+        <v>653</v>
       </c>
       <c r="G167" t="s">
-        <v>524</v>
+        <v>654</v>
       </c>
       <c r="H167" t="s">
-        <v>525</v>
+        <v>326</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J167" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K167" t="s">
-        <v>526</v>
+        <v>655</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B168" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C168" t="s">
-        <v>523</v>
+        <v>644</v>
       </c>
       <c r="E168">
-        <v>2</v>
-      </c>
-      <c r="F168">
-        <v>633</v>
+        <v>4</v>
+      </c>
+      <c r="F168" t="s">
+        <v>656</v>
       </c>
       <c r="G168" t="s">
-        <v>527</v>
+        <v>657</v>
       </c>
       <c r="H168" t="s">
-        <v>101</v>
+        <v>658</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J168" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K168" t="s">
-        <v>528</v>
+        <v>659</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
@@ -7356,31 +7938,31 @@
         <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C169" t="s">
-        <v>523</v>
+        <v>660</v>
       </c>
       <c r="E169">
-        <v>3</v>
-      </c>
-      <c r="F169">
-        <v>3908</v>
+        <v>1</v>
+      </c>
+      <c r="F169" t="s">
+        <v>661</v>
       </c>
       <c r="G169" t="s">
-        <v>529</v>
+        <v>662</v>
       </c>
       <c r="H169" t="s">
-        <v>18</v>
+        <v>663</v>
       </c>
       <c r="I169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K169" t="s">
-        <v>530</v>
+        <v>664</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
@@ -7388,31 +7970,95 @@
         <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C170" t="s">
-        <v>523</v>
+        <v>660</v>
       </c>
       <c r="E170">
-        <v>4</v>
-      </c>
-      <c r="F170">
-        <v>4451</v>
+        <v>2</v>
+      </c>
+      <c r="F170" t="s">
+        <v>665</v>
       </c>
       <c r="G170" t="s">
-        <v>531</v>
+        <v>666</v>
       </c>
       <c r="H170" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
       <c r="K170" t="s">
-        <v>532</v>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>6</v>
+      </c>
+      <c r="B171" t="s">
+        <v>99</v>
+      </c>
+      <c r="C171" t="s">
+        <v>660</v>
+      </c>
+      <c r="E171">
+        <v>3</v>
+      </c>
+      <c r="F171" t="s">
+        <v>668</v>
+      </c>
+      <c r="G171" t="s">
+        <v>669</v>
+      </c>
+      <c r="H171" t="s">
+        <v>20</v>
+      </c>
+      <c r="I171">
+        <v>3</v>
+      </c>
+      <c r="J171" t="s">
+        <v>586</v>
+      </c>
+      <c r="K171" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>6</v>
+      </c>
+      <c r="B172" t="s">
+        <v>99</v>
+      </c>
+      <c r="C172" t="s">
+        <v>660</v>
+      </c>
+      <c r="E172">
+        <v>4</v>
+      </c>
+      <c r="F172" t="s">
+        <v>671</v>
+      </c>
+      <c r="G172" t="s">
+        <v>672</v>
+      </c>
+      <c r="H172" t="s">
+        <v>185</v>
+      </c>
+      <c r="I172">
+        <v>3</v>
+      </c>
+      <c r="J172" t="s">
+        <v>586</v>
+      </c>
+      <c r="K172" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>

--- a/Updated_parallel_sessions.xlsx
+++ b/Updated_parallel_sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kghali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163F1AAF-BB3E-41E0-AA49-6F0DF32BACD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAB23E9-BAAB-4949-97FC-34FAAB24F3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="712">
   <si>
     <t>Number</t>
   </si>
@@ -2167,6 +2167,9 @@
   </si>
   <si>
     <t>Emerging Technologies / New Product Design</t>
+  </si>
+  <si>
+    <t>manav</t>
   </si>
 </sst>
 </file>
@@ -2541,8 +2544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121:C124"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2597,6 +2600,9 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
+      <c r="D2" t="s">
+        <v>711</v>
+      </c>
       <c r="E2">
         <v>1</v>
       </c>
@@ -2629,6 +2635,9 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
+      <c r="D3" t="s">
+        <v>711</v>
+      </c>
       <c r="E3">
         <v>2</v>
       </c>
@@ -2661,6 +2670,9 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="D4" t="s">
+        <v>711</v>
+      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -2692,6 +2704,9 @@
       </c>
       <c r="C5" t="s">
         <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>711</v>
       </c>
       <c r="E5">
         <v>4</v>

--- a/Updated_parallel_sessions.xlsx
+++ b/Updated_parallel_sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kghali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155BE3CD-734E-4350-941F-E58D14E45F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77C00B0-DD1E-4639-AD08-917950CCD3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3744" yWindow="2592" windowWidth="17052" windowHeight="9108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="738">
   <si>
     <t>Room</t>
   </si>
@@ -2110,9 +2110,6 @@
   </si>
   <si>
     <t>Chike F Oduoza</t>
-  </si>
-  <si>
-    <t>Elvind Reke</t>
   </si>
   <si>
     <t>Koki Karube</t>
@@ -2313,7 +2310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2321,7 +2318,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2626,8 +2622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G180" sqref="G180"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66:C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2730,7 +2726,7 @@
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2849,7 +2845,7 @@
         <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -2858,7 +2854,7 @@
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2890,7 +2886,7 @@
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3649,7 +3645,7 @@
         <v>140</v>
       </c>
       <c r="G32" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -4297,8 +4293,8 @@
       <c r="I52" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="J52" s="5" t="s">
-        <v>718</v>
+      <c r="J52" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -4329,8 +4325,8 @@
       <c r="I53" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="J53" s="5" t="s">
-        <v>719</v>
+      <c r="J53" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -4385,7 +4381,7 @@
         <v>209</v>
       </c>
       <c r="G55" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -4725,7 +4721,7 @@
         <v>29</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>692</v>
+        <v>170</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -4757,7 +4753,7 @@
         <v>29</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>692</v>
+        <v>170</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -4789,7 +4785,7 @@
         <v>29</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>692</v>
+        <v>170</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -4810,7 +4806,7 @@
         <v>206</v>
       </c>
       <c r="J68" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -4821,7 +4817,7 @@
         <v>29</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>692</v>
+        <v>170</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -5002,7 +4998,7 @@
         <v>206</v>
       </c>
       <c r="J74" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -5109,7 +5105,7 @@
         <v>297</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -5121,7 +5117,7 @@
         <v>299</v>
       </c>
       <c r="G78" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -5130,7 +5126,7 @@
         <v>206</v>
       </c>
       <c r="J78" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -5141,7 +5137,7 @@
         <v>297</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -5173,7 +5169,7 @@
         <v>297</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -5205,7 +5201,7 @@
         <v>297</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D81">
         <v>4</v>
@@ -5255,7 +5251,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J82" t="s">
         <v>315</v>
@@ -5287,7 +5283,7 @@
         <v>4</v>
       </c>
       <c r="I83" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J83" t="s">
         <v>319</v>
@@ -5319,7 +5315,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J84" t="s">
         <v>322</v>
@@ -5351,7 +5347,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J85" t="s">
         <v>326</v>
@@ -5383,7 +5379,7 @@
         <v>4</v>
       </c>
       <c r="I86" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J86" t="s">
         <v>664</v>
@@ -5406,7 +5402,7 @@
         <v>6593</v>
       </c>
       <c r="F87" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G87" t="s">
         <v>41</v>
@@ -5415,10 +5411,10 @@
         <v>4</v>
       </c>
       <c r="I87" t="s">
-        <v>694</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>710</v>
+        <v>693</v>
+      </c>
+      <c r="J87" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -5447,7 +5443,7 @@
         <v>4</v>
       </c>
       <c r="I88" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J88" t="s">
         <v>335</v>
@@ -5479,7 +5475,7 @@
         <v>4</v>
       </c>
       <c r="I89" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>673</v>
@@ -5511,7 +5507,7 @@
         <v>4</v>
       </c>
       <c r="I90" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>559</v>
@@ -5534,19 +5530,19 @@
         <v>5559</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H91" s="3">
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>694</v>
-      </c>
-      <c r="J91" s="5" t="s">
-        <v>711</v>
+        <v>693</v>
+      </c>
+      <c r="J91" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -5575,10 +5571,10 @@
         <v>4</v>
       </c>
       <c r="I92" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J92" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -5607,7 +5603,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J93" t="s">
         <v>346</v>
@@ -5639,7 +5635,7 @@
         <v>4</v>
       </c>
       <c r="I94" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J94" t="s">
         <v>350</v>
@@ -5662,7 +5658,7 @@
         <v>9480</v>
       </c>
       <c r="F95" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G95" t="s">
         <v>329</v>
@@ -5671,9 +5667,9 @@
         <v>4</v>
       </c>
       <c r="I95" t="s">
-        <v>694</v>
-      </c>
-      <c r="J95" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="J95" t="s">
         <v>330</v>
       </c>
     </row>
@@ -5685,7 +5681,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -5703,7 +5699,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J96" t="s">
         <v>354</v>
@@ -5717,7 +5713,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -5729,16 +5725,16 @@
         <v>356</v>
       </c>
       <c r="G97" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H97">
         <v>4</v>
       </c>
       <c r="I97" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J97" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -5749,7 +5745,7 @@
         <v>96</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -5767,7 +5763,7 @@
         <v>4</v>
       </c>
       <c r="I98" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J98" t="s">
         <v>360</v>
@@ -5781,7 +5777,7 @@
         <v>361</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -5799,7 +5795,7 @@
         <v>4</v>
       </c>
       <c r="I99" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J99" t="s">
         <v>365</v>
@@ -5813,7 +5809,7 @@
         <v>361</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -5831,7 +5827,7 @@
         <v>4</v>
       </c>
       <c r="I100" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J100" t="s">
         <v>369</v>
@@ -5845,7 +5841,7 @@
         <v>361</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D101">
         <v>3</v>
@@ -5863,7 +5859,7 @@
         <v>4</v>
       </c>
       <c r="I101" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J101" t="s">
         <v>373</v>
@@ -5877,7 +5873,7 @@
         <v>361</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D102">
         <v>4</v>
@@ -5895,7 +5891,7 @@
         <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J102" t="s">
         <v>518</v>
@@ -5927,10 +5923,10 @@
         <v>4</v>
       </c>
       <c r="I103" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J103" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -5959,10 +5955,10 @@
         <v>4</v>
       </c>
       <c r="I104" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J104" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -5991,7 +5987,7 @@
         <v>4</v>
       </c>
       <c r="I105" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J105" t="s">
         <v>647</v>
@@ -6011,22 +6007,22 @@
         <v>4</v>
       </c>
       <c r="E106" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="F106" t="s">
         <v>697</v>
       </c>
-      <c r="F106" t="s">
-        <v>698</v>
-      </c>
       <c r="G106" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H106">
         <v>4</v>
       </c>
       <c r="I106" t="s">
-        <v>694</v>
-      </c>
-      <c r="J106" s="5" t="s">
-        <v>713</v>
+        <v>693</v>
+      </c>
+      <c r="J106" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -6037,7 +6033,7 @@
         <v>380</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -6069,7 +6065,7 @@
         <v>380</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -6101,7 +6097,7 @@
         <v>380</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D109">
         <v>3</v>
@@ -6133,7 +6129,7 @@
         <v>380</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D110">
         <v>4</v>
@@ -6177,7 +6173,7 @@
         <v>399</v>
       </c>
       <c r="G111" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -6186,7 +6182,7 @@
         <v>384</v>
       </c>
       <c r="J111" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -6549,7 +6545,7 @@
         <v>438</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -6581,7 +6577,7 @@
         <v>438</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -6613,7 +6609,7 @@
         <v>438</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D125">
         <v>3</v>
@@ -6645,7 +6641,7 @@
         <v>438</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D126">
         <v>4</v>
@@ -6677,7 +6673,7 @@
         <v>678</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D127" s="3">
         <v>1</v>
@@ -6698,7 +6694,7 @@
         <v>384</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -6709,7 +6705,7 @@
         <v>678</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -6730,7 +6726,7 @@
         <v>384</v>
       </c>
       <c r="J128" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -6741,7 +6737,7 @@
         <v>678</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D129">
         <v>3</v>
@@ -6773,7 +6769,7 @@
         <v>678</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D130">
         <v>4</v>
@@ -6805,7 +6801,7 @@
         <v>465</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -6837,7 +6833,7 @@
         <v>465</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D132">
         <v>2</v>
@@ -6869,7 +6865,7 @@
         <v>465</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D133">
         <v>3</v>
@@ -6901,7 +6897,7 @@
         <v>465</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D134">
         <v>4</v>
@@ -6933,7 +6929,7 @@
         <v>483</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -6965,7 +6961,7 @@
         <v>483</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D136">
         <v>2</v>
@@ -6997,7 +6993,7 @@
         <v>483</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D137">
         <v>3</v>
@@ -7029,7 +7025,7 @@
         <v>483</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D138">
         <v>4</v>
@@ -7061,7 +7057,7 @@
         <v>500</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -7093,7 +7089,7 @@
         <v>500</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D140">
         <v>2</v>
@@ -7114,7 +7110,7 @@
         <v>469</v>
       </c>
       <c r="J140" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
@@ -7125,7 +7121,7 @@
         <v>500</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D141">
         <v>3</v>
@@ -7137,7 +7133,7 @@
         <v>507</v>
       </c>
       <c r="G141" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -7146,7 +7142,7 @@
         <v>469</v>
       </c>
       <c r="J141" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
@@ -7157,7 +7153,7 @@
         <v>500</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D142">
         <v>4</v>
@@ -7178,7 +7174,7 @@
         <v>469</v>
       </c>
       <c r="J142" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
@@ -7291,13 +7287,13 @@
         <v>4</v>
       </c>
       <c r="E146" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="F146" t="s">
         <v>705</v>
       </c>
-      <c r="F146" t="s">
-        <v>706</v>
-      </c>
       <c r="G146" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -7305,8 +7301,8 @@
       <c r="I146" t="s">
         <v>469</v>
       </c>
-      <c r="J146" s="5" t="s">
-        <v>717</v>
+      <c r="J146" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -7402,7 +7398,7 @@
         <v>469</v>
       </c>
       <c r="J149" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -7701,7 +7697,7 @@
         <v>96</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -7733,7 +7729,7 @@
         <v>96</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -7754,7 +7750,7 @@
         <v>558</v>
       </c>
       <c r="J160" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -7765,7 +7761,7 @@
         <v>96</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -7797,7 +7793,7 @@
         <v>96</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D162">
         <v>4</v>
@@ -8202,7 +8198,7 @@
         <v>558</v>
       </c>
       <c r="J174" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
